--- a/raw_data/AVAX-USD_4h_process.xlsx
+++ b/raw_data/AVAX-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>43.23967361450195</v>
+        <v>36.91463851928711</v>
       </c>
       <c r="C2">
-        <v>43.33223724365234</v>
+        <v>37.17461776733398</v>
       </c>
       <c r="D2">
-        <v>42.22649383544922</v>
+        <v>36.00888824462891</v>
       </c>
       <c r="E2">
-        <v>42.41332626342773</v>
+        <v>36.2867431640625</v>
       </c>
       <c r="F2">
-        <v>1005248</v>
+        <v>49335296</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>42.41714859008789</v>
+        <v>36.28866577148438</v>
       </c>
       <c r="C3">
-        <v>43.31593322753906</v>
+        <v>37.40358352661133</v>
       </c>
       <c r="D3">
-        <v>41.62637710571289</v>
+        <v>36.26885223388672</v>
       </c>
       <c r="E3">
-        <v>42.11711120605469</v>
+        <v>36.79294204711914</v>
       </c>
       <c r="F3">
-        <v>30156928</v>
+        <v>52184448</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>42.12152481079102</v>
+        <v>36.79512786865234</v>
       </c>
       <c r="C4">
-        <v>42.62172698974609</v>
+        <v>37.1689682006836</v>
       </c>
       <c r="D4">
-        <v>41.09199523925781</v>
+        <v>36.34981536865234</v>
       </c>
       <c r="E4">
-        <v>41.55106735229492</v>
+        <v>36.92206573486328</v>
       </c>
       <c r="F4">
-        <v>60726976</v>
+        <v>15513600</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>41.55120468139648</v>
+        <v>36.99082946777344</v>
       </c>
       <c r="C5">
-        <v>42.32334518432617</v>
+        <v>37.33736038208008</v>
       </c>
       <c r="D5">
-        <v>41.31120300292969</v>
+        <v>36.75493621826172</v>
       </c>
       <c r="E5">
-        <v>42.19530487060547</v>
+        <v>36.75493621826172</v>
       </c>
       <c r="F5">
-        <v>15848704</v>
+        <v>4661376</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>42.18795394897461</v>
+        <v>36.71024703979492</v>
       </c>
       <c r="C6">
-        <v>42.24045181274414</v>
+        <v>37.11501312255859</v>
       </c>
       <c r="D6">
-        <v>39.4494514465332</v>
+        <v>36.31148910522461</v>
       </c>
       <c r="E6">
-        <v>40.02029418945312</v>
+        <v>37.02619934082031</v>
       </c>
       <c r="F6">
-        <v>101188736</v>
+        <v>2716544</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>40.02772521972656</v>
+        <v>37.02532196044922</v>
       </c>
       <c r="C7">
-        <v>40.22968292236328</v>
+        <v>39.00210571289063</v>
       </c>
       <c r="D7">
-        <v>39.35506439208984</v>
+        <v>36.94594955444336</v>
       </c>
       <c r="E7">
-        <v>40.07223892211914</v>
+        <v>39.00210571289063</v>
       </c>
       <c r="F7">
-        <v>7805440</v>
+        <v>13973440</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>40.05979919433594</v>
+        <v>39.07535171508789</v>
       </c>
       <c r="C8">
-        <v>40.43120956420898</v>
+        <v>39.32992935180664</v>
       </c>
       <c r="D8">
-        <v>39.54987716674805</v>
+        <v>38.19528961181641</v>
       </c>
       <c r="E8">
-        <v>39.90402984619141</v>
+        <v>38.9036750793457</v>
       </c>
       <c r="F8">
-        <v>2757888</v>
+        <v>25673344</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>39.90666198730469</v>
+        <v>38.90255355834961</v>
       </c>
       <c r="C9">
-        <v>41.08650207519531</v>
+        <v>39.35528945922852</v>
       </c>
       <c r="D9">
-        <v>38.81035232543945</v>
+        <v>38.47356033325195</v>
       </c>
       <c r="E9">
-        <v>41.05295944213867</v>
+        <v>38.73490142822266</v>
       </c>
       <c r="F9">
-        <v>86182016</v>
+        <v>13299840</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>41.06142044067383</v>
+        <v>38.73728561401367</v>
       </c>
       <c r="C10">
-        <v>41.64334106445312</v>
+        <v>38.90220260620117</v>
       </c>
       <c r="D10">
-        <v>40.64278793334961</v>
+        <v>37.04095840454102</v>
       </c>
       <c r="E10">
-        <v>40.64431381225586</v>
+        <v>37.04095840454102</v>
       </c>
       <c r="F10">
-        <v>12603648</v>
+        <v>56117248</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>40.64525985717773</v>
+        <v>37.0471076965332</v>
       </c>
       <c r="C11">
-        <v>42.10284805297852</v>
+        <v>37.26976776123047</v>
       </c>
       <c r="D11">
-        <v>40.64495849609375</v>
+        <v>36.84474563598633</v>
       </c>
       <c r="E11">
-        <v>41.91800308227539</v>
+        <v>37.10324859619141</v>
       </c>
       <c r="F11">
-        <v>39197568</v>
+        <v>26372224</v>
       </c>
       <c r="L11">
-        <v>55.23273625302574</v>
+        <v>48.7055645517617</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>41.90849685668945</v>
+        <v>37.10308456420898</v>
       </c>
       <c r="C12">
-        <v>42.01572036743164</v>
+        <v>37.68422698974609</v>
       </c>
       <c r="D12">
-        <v>39.80319595336914</v>
+        <v>36.55444717407227</v>
       </c>
       <c r="E12">
-        <v>39.86397552490234</v>
+        <v>36.56008529663086</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>24445824</v>
       </c>
       <c r="L12">
-        <v>36.72069164387904</v>
+        <v>41.45006002574124</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>39.87077713012695</v>
+        <v>36.55591583251953</v>
       </c>
       <c r="C13">
-        <v>40.43771743774414</v>
+        <v>36.95320510864258</v>
       </c>
       <c r="D13">
-        <v>39.40241241455078</v>
+        <v>35.86147689819336</v>
       </c>
       <c r="E13">
-        <v>40.41106796264648</v>
+        <v>36.03693771362305</v>
       </c>
       <c r="F13">
-        <v>22115584</v>
+        <v>17099008</v>
       </c>
       <c r="L13">
-        <v>42.49585107106811</v>
+        <v>35.68937299161213</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>40.41014862060547</v>
+        <v>36.09261703491211</v>
       </c>
       <c r="C14">
-        <v>40.41014862060547</v>
+        <v>36.2437858581543</v>
       </c>
       <c r="D14">
-        <v>39.67671966552734</v>
+        <v>35.23831176757812</v>
       </c>
       <c r="E14">
-        <v>40.20977783203125</v>
+        <v>35.76076507568359</v>
       </c>
       <c r="F14">
-        <v>3181440</v>
+        <v>2756416</v>
       </c>
       <c r="L14">
-        <v>40.94896106376842</v>
+        <v>32.96821649799085</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>40.20987701416016</v>
+        <v>35.76310348510742</v>
       </c>
       <c r="C15">
-        <v>40.32802200317383</v>
+        <v>36.50455474853516</v>
       </c>
       <c r="D15">
-        <v>39.66391372680664</v>
+        <v>35.76310348510742</v>
       </c>
       <c r="E15">
-        <v>39.79309844970703</v>
+        <v>36.43050384521485</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1217664</v>
       </c>
       <c r="L15">
-        <v>37.74896119851145</v>
+        <v>44.51074176842437</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,519 +1309,525 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>39.7941780090332</v>
+        <v>36.43449783325195</v>
       </c>
       <c r="C16">
-        <v>39.96101760864258</v>
+        <v>36.46504974365234</v>
       </c>
       <c r="D16">
-        <v>39.17899703979492</v>
+        <v>35.49930191040039</v>
       </c>
       <c r="E16">
-        <v>39.17899703979492</v>
+        <v>35.51015472412109</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>33.41893712455127</v>
+        <v>35.1528114246555</v>
       </c>
       <c r="M16">
-        <v>34.25739893782089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>38.39975474354776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>39.17798614501953</v>
+        <v>35.51110076904297</v>
       </c>
       <c r="C17">
-        <v>39.18134689331055</v>
+        <v>35.70028686523438</v>
       </c>
       <c r="D17">
-        <v>38.29671859741211</v>
+        <v>33.64159393310547</v>
       </c>
       <c r="E17">
-        <v>39.16553115844727</v>
+        <v>34.40480804443359</v>
       </c>
       <c r="F17">
-        <v>6766080</v>
+        <v>66209536</v>
       </c>
       <c r="L17">
-        <v>33.32464010086336</v>
+        <v>27.37625335537702</v>
       </c>
       <c r="M17">
-        <v>34.18397861198748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31.41134761623307</v>
+      </c>
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>39.16532135009766</v>
+        <v>34.41415405273438</v>
       </c>
       <c r="C18">
-        <v>39.80976867675781</v>
+        <v>34.97915267944336</v>
       </c>
       <c r="D18">
-        <v>39.05653381347656</v>
+        <v>34.24775695800781</v>
       </c>
       <c r="E18">
-        <v>39.7641716003418</v>
+        <v>34.80654907226562</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1359872</v>
       </c>
       <c r="L18">
-        <v>41.57025644786616</v>
+        <v>33.40044627994433</v>
       </c>
       <c r="M18">
-        <v>40.30873293387501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>35.97224577902441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>39.76382446289063</v>
+        <v>34.80559539794922</v>
       </c>
       <c r="C19">
-        <v>40.0699348449707</v>
+        <v>35.11139297485352</v>
       </c>
       <c r="D19">
-        <v>39.56138229370117</v>
+        <v>34.52124786376953</v>
       </c>
       <c r="E19">
-        <v>39.98420715332031</v>
+        <v>34.98490524291992</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>44.41282961034857</v>
+        <v>36.04989758062017</v>
       </c>
       <c r="M19">
-        <v>42.42938493366604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>37.94512565206684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>39.98420333862305</v>
+        <v>34.98445892333984</v>
       </c>
       <c r="C20">
-        <v>40.0718994140625</v>
+        <v>35.32723236083984</v>
       </c>
       <c r="D20">
-        <v>39.27493286132812</v>
+        <v>34.65338897705078</v>
       </c>
       <c r="E20">
-        <v>39.40179443359375</v>
+        <v>34.73140335083008</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.79301803835266</v>
+        <v>33.89388373353428</v>
       </c>
       <c r="M20">
-        <v>38.52768228788989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>36.23608876258759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>39.39030075073242</v>
+        <v>34.73565292358398</v>
       </c>
       <c r="C21">
-        <v>39.54773330688477</v>
+        <v>34.85739135742188</v>
       </c>
       <c r="D21">
-        <v>38.67494583129883</v>
+        <v>33.85182952880859</v>
       </c>
       <c r="E21">
-        <v>38.86630630493164</v>
+        <v>34.60446929931641</v>
       </c>
       <c r="F21">
-        <v>2135424</v>
+        <v>5777024</v>
       </c>
       <c r="H21">
-        <v>40.42637882232666</v>
+        <v>36.41991786956787</v>
       </c>
       <c r="L21">
-        <v>34.30328479657189</v>
+        <v>32.78922502099306</v>
       </c>
       <c r="M21">
-        <v>35.31240516687564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35.3768840694694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>38.87173461914063</v>
+        <v>34.62958526611328</v>
       </c>
       <c r="C22">
-        <v>40.22014236450195</v>
+        <v>35.38116455078125</v>
       </c>
       <c r="D22">
-        <v>38.86312484741211</v>
+        <v>34.40153884887695</v>
       </c>
       <c r="E22">
-        <v>40.11197662353516</v>
+        <v>34.51609039306641</v>
       </c>
       <c r="F22">
-        <v>8230976</v>
+        <v>33155776</v>
       </c>
       <c r="G22">
-        <v>40.41140728905087</v>
+        <v>36.3292594183059</v>
       </c>
       <c r="H22">
-        <v>40.31131134033203</v>
+        <v>36.33138523101807</v>
       </c>
       <c r="L22">
-        <v>49.57583270677706</v>
+        <v>31.97299400059421</v>
       </c>
       <c r="M22">
-        <v>46.4978809544476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>34.75890107144643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>40.13803100585938</v>
+        <v>34.5189323425293</v>
       </c>
       <c r="C23">
-        <v>40.463134765625</v>
+        <v>35.7130126953125</v>
       </c>
       <c r="D23">
-        <v>39.90600204467773</v>
+        <v>34.5189323425293</v>
       </c>
       <c r="E23">
-        <v>39.9503288269043</v>
+        <v>35.07210159301758</v>
       </c>
       <c r="F23">
-        <v>5091200</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>40.36949106521936</v>
+        <v>36.21497234327968</v>
       </c>
       <c r="H23">
-        <v>40.20297222137451</v>
+        <v>36.24534320831299</v>
       </c>
       <c r="L23">
-        <v>47.94855179374658</v>
+        <v>42.16301399947597</v>
       </c>
       <c r="M23">
-        <v>45.40077621166303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>41.66319382387707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>39.9500617980957</v>
+        <v>35.07590484619141</v>
       </c>
       <c r="C24">
-        <v>40.18917846679688</v>
+        <v>35.27896499633789</v>
       </c>
       <c r="D24">
-        <v>39.27995300292969</v>
+        <v>34.46297836303711</v>
       </c>
       <c r="E24">
-        <v>39.30081558227539</v>
+        <v>34.89241027832031</v>
       </c>
       <c r="F24">
-        <v>16351680</v>
+        <v>4915456</v>
       </c>
       <c r="G24">
-        <v>40.2723387485881</v>
+        <v>36.09473942828338</v>
       </c>
       <c r="H24">
-        <v>40.09045963287353</v>
+        <v>36.14386043548584</v>
       </c>
       <c r="L24">
-        <v>41.75336085084143</v>
+        <v>39.9853510547421</v>
       </c>
       <c r="M24">
-        <v>41.19485779025176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>40.18316458245197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>39.29505157470703</v>
+        <v>34.89383316040039</v>
       </c>
       <c r="C25">
-        <v>39.87047576904297</v>
+        <v>35.70709609985352</v>
       </c>
       <c r="D25">
-        <v>39.2656478881836</v>
+        <v>34.62063980102539</v>
       </c>
       <c r="E25">
-        <v>39.3618049621582</v>
+        <v>34.72942352294922</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>22715264</v>
       </c>
       <c r="G25">
-        <v>40.18956294982174</v>
+        <v>35.97061980052572</v>
       </c>
       <c r="H25">
-        <v>39.94878463745117</v>
+        <v>36.04258480072021</v>
       </c>
       <c r="L25">
-        <v>42.53765909860755</v>
+        <v>37.98350007755863</v>
       </c>
       <c r="M25">
-        <v>41.74063351386533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>38.83557577080182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>39.3619384765625</v>
+        <v>34.72897720336914</v>
       </c>
       <c r="C26">
-        <v>39.62951278686523</v>
+        <v>35.44018936157227</v>
       </c>
       <c r="D26">
-        <v>38.2690544128418</v>
+        <v>34.38080596923828</v>
       </c>
       <c r="E26">
-        <v>38.53945159912109</v>
+        <v>34.92650985717773</v>
       </c>
       <c r="F26">
-        <v>43686080</v>
+        <v>18747200</v>
       </c>
       <c r="G26">
-        <v>40.03955282703078</v>
+        <v>35.87570071476681</v>
       </c>
       <c r="H26">
-        <v>39.87474250793457</v>
+        <v>35.93760032653809</v>
       </c>
       <c r="L26">
-        <v>35.32287698772254</v>
+        <v>41.93789745605122</v>
       </c>
       <c r="M26">
-        <v>36.783396571174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>41.39496913939363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>38.54644775390625</v>
+        <v>34.92971801757812</v>
       </c>
       <c r="C27">
-        <v>39.52888870239258</v>
+        <v>34.97461318969727</v>
       </c>
       <c r="D27">
-        <v>38.52902603149414</v>
+        <v>33.28334808349609</v>
       </c>
       <c r="E27">
-        <v>38.52902603149414</v>
+        <v>33.62701034545898</v>
       </c>
       <c r="F27">
-        <v>5315776</v>
+        <v>27026048</v>
       </c>
       <c r="G27">
-        <v>39.90223220925471</v>
+        <v>35.67127431755701</v>
       </c>
       <c r="H27">
-        <v>39.79758186340332</v>
+        <v>35.6688455581665</v>
       </c>
       <c r="L27">
-        <v>35.23763567020839</v>
+        <v>28.47141350621888</v>
       </c>
       <c r="M27">
-        <v>36.72385027274792</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>31.91280583445889</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>38.52964401245117</v>
+        <v>33.63080978393555</v>
       </c>
       <c r="C28">
-        <v>38.63011932373047</v>
+        <v>33.90854263305664</v>
       </c>
       <c r="D28">
-        <v>38.1713981628418</v>
+        <v>31.48079490661621</v>
       </c>
       <c r="E28">
-        <v>38.58181381225586</v>
+        <v>31.99802780151367</v>
       </c>
       <c r="F28">
-        <v>6006528</v>
+        <v>90244288</v>
       </c>
       <c r="G28">
-        <v>39.7821941731639</v>
+        <v>35.33734281609853</v>
       </c>
       <c r="H28">
-        <v>39.73147106170654</v>
+        <v>35.3235631942749</v>
       </c>
       <c r="L28">
-        <v>36.1157959508277</v>
+        <v>19.59713603076445</v>
       </c>
       <c r="M28">
-        <v>37.27751211625439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>24.3752049662089</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>38.57939910888672</v>
+        <v>31.99407005310058</v>
       </c>
       <c r="C29">
-        <v>39.8205680847168</v>
+        <v>33.17374801635742</v>
       </c>
       <c r="D29">
-        <v>38.54809951782227</v>
+        <v>31.77258682250977</v>
       </c>
       <c r="E29">
-        <v>39.49250411987305</v>
+        <v>32.73814392089844</v>
       </c>
       <c r="F29">
-        <v>13098624</v>
+        <v>23468608</v>
       </c>
       <c r="G29">
-        <v>39.75585871377383</v>
+        <v>35.10105200744398</v>
       </c>
       <c r="H29">
-        <v>39.65344829559326</v>
+        <v>35.02372531890869</v>
       </c>
       <c r="L29">
-        <v>49.42560010874089</v>
+        <v>30.64630322509165</v>
       </c>
       <c r="M29">
-        <v>46.04817959293577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>32.20958372097333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>39.53311538696289</v>
+        <v>32.73240280151367</v>
       </c>
       <c r="C30">
-        <v>40.22562408447266</v>
+        <v>33.71129608154297</v>
       </c>
       <c r="D30">
-        <v>39.44819641113281</v>
+        <v>32.50151443481445</v>
       </c>
       <c r="E30">
-        <v>40.22562408447266</v>
+        <v>33.71129608154297</v>
       </c>
       <c r="F30">
-        <v>18006144</v>
+        <v>37167488</v>
       </c>
       <c r="G30">
-        <v>39.79856465656463</v>
+        <v>34.97471055963479</v>
       </c>
       <c r="H30">
-        <v>39.6325138092041</v>
+        <v>34.85724220275879</v>
       </c>
       <c r="L30">
-        <v>57.45345215092657</v>
+        <v>42.36272230530044</v>
       </c>
       <c r="M30">
-        <v>51.88143571899813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>40.8817482253156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>40.21722030639648</v>
+        <v>33.71259307861328</v>
       </c>
       <c r="C31">
-        <v>41.04725646972656</v>
+        <v>34.47443389892578</v>
       </c>
       <c r="D31">
-        <v>39.91810989379883</v>
+        <v>33.71259307861328</v>
       </c>
       <c r="E31">
-        <v>41.02643203735352</v>
+        <v>34.24262237548828</v>
       </c>
       <c r="F31">
-        <v>60194432</v>
+        <v>128924160</v>
       </c>
       <c r="G31">
-        <v>39.91018896390908</v>
+        <v>34.90815708834874</v>
       </c>
       <c r="H31">
-        <v>39.587935256958</v>
+        <v>34.71421089172363</v>
       </c>
       <c r="I31">
-        <v>40.12157847086588</v>
+        <v>35.6283997853597</v>
       </c>
       <c r="L31">
-        <v>64.3980655114559</v>
+        <v>47.78128996974498</v>
       </c>
       <c r="M31">
-        <v>57.31093300348068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>45.01745098301424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>41.028076171875</v>
+        <v>34.24713134765625</v>
       </c>
       <c r="C32">
-        <v>41.98056793212891</v>
+        <v>36.36847686767578</v>
       </c>
       <c r="D32">
-        <v>40.89555740356445</v>
+        <v>34.03348159790039</v>
       </c>
       <c r="E32">
-        <v>41.86516571044922</v>
+        <v>36.22145843505859</v>
       </c>
       <c r="F32">
-        <v>55253568</v>
+        <v>144058816</v>
       </c>
       <c r="G32">
-        <v>40.08791412268545</v>
+        <v>35.02754811986782</v>
       </c>
       <c r="H32">
-        <v>39.68799476623535</v>
+        <v>34.69727954864502</v>
       </c>
       <c r="I32">
-        <v>40.10330645243327</v>
+        <v>35.62622362772624</v>
       </c>
       <c r="L32">
-        <v>70.14070460317376</v>
+        <v>62.53759746427509</v>
       </c>
       <c r="M32">
-        <v>62.13058755723053</v>
-      </c>
-      <c r="O32" t="s">
-        <v>195</v>
+        <v>57.06443009170413</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1829,37 +1835,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>41.86973571777344</v>
+        <v>36.22502517700195</v>
       </c>
       <c r="C33">
-        <v>42.79346466064453</v>
+        <v>36.24313735961914</v>
       </c>
       <c r="D33">
-        <v>41.83356094360352</v>
+        <v>35.63558197021484</v>
       </c>
       <c r="E33">
-        <v>42.04910659790039</v>
+        <v>36.08287048339844</v>
       </c>
       <c r="F33">
-        <v>100600704</v>
+        <v>44395200</v>
       </c>
       <c r="G33">
-        <v>40.26620434770499</v>
+        <v>35.12348651655243</v>
       </c>
       <c r="H33">
-        <v>39.76989669799805</v>
+        <v>34.69957618713379</v>
       </c>
       <c r="I33">
-        <v>40.10103963216146</v>
+        <v>35.60255457560221</v>
       </c>
       <c r="L33">
-        <v>71.28351941317018</v>
+        <v>61.17553349272856</v>
       </c>
       <c r="M33">
-        <v>63.11414115214519</v>
-      </c>
-      <c r="O33" t="s">
-        <v>195</v>
+        <v>56.13674441063279</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1867,37 +1870,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>42.05632400512695</v>
+        <v>36.08619689941406</v>
       </c>
       <c r="C34">
-        <v>43.27567291259766</v>
+        <v>36.46529388427734</v>
       </c>
       <c r="D34">
-        <v>41.99816131591797</v>
+        <v>35.28060913085938</v>
       </c>
       <c r="E34">
-        <v>43.27567291259766</v>
+        <v>35.87120056152344</v>
       </c>
       <c r="F34">
-        <v>64589120</v>
+        <v>8407104</v>
       </c>
       <c r="G34">
-        <v>40.53979239905887</v>
+        <v>35.1914605206407</v>
       </c>
       <c r="H34">
-        <v>39.92319145202637</v>
+        <v>34.70509796142578</v>
       </c>
       <c r="I34">
-        <v>40.15852648417155</v>
+        <v>35.56752573649089</v>
       </c>
       <c r="L34">
-        <v>77.68933117675475</v>
+        <v>58.96872696021541</v>
       </c>
       <c r="M34">
-        <v>68.912360599034</v>
-      </c>
-      <c r="O34" t="s">
-        <v>195</v>
+        <v>54.67476698488202</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1905,34 +1905,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>43.24968338012695</v>
+        <v>35.89262008666992</v>
       </c>
       <c r="C35">
-        <v>43.38654708862305</v>
+        <v>37.54158401489258</v>
       </c>
       <c r="D35">
-        <v>42.15452194213867</v>
+        <v>35.89262008666992</v>
       </c>
       <c r="E35">
-        <v>42.34896469116211</v>
+        <v>37.02721405029297</v>
       </c>
       <c r="F35">
-        <v>61595712</v>
+        <v>70515328</v>
       </c>
       <c r="G35">
-        <v>40.70426260743189</v>
+        <v>35.35834720515454</v>
       </c>
       <c r="H35">
-        <v>40.05098476409912</v>
+        <v>34.73493347167969</v>
       </c>
       <c r="I35">
-        <v>40.1636484781901</v>
+        <v>35.57660166422526</v>
       </c>
       <c r="L35">
-        <v>65.30688535579091</v>
+        <v>66.41288340973175</v>
       </c>
       <c r="M35">
-        <v>61.09792087241729</v>
+        <v>60.69519689504963</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1940,34 +1940,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>42.34057235717773</v>
+        <v>37.02589797973633</v>
       </c>
       <c r="C36">
-        <v>42.4625244140625</v>
+        <v>37.39559173583984</v>
       </c>
       <c r="D36">
-        <v>40.72610473632812</v>
+        <v>36.30938720703125</v>
       </c>
       <c r="E36">
-        <v>41.23370361328125</v>
+        <v>36.42159271240234</v>
       </c>
       <c r="F36">
-        <v>64665152</v>
+        <v>25937088</v>
       </c>
       <c r="G36">
-        <v>40.75239360796365</v>
+        <v>35.45500588763161</v>
       </c>
       <c r="H36">
-        <v>40.15372009277344</v>
+        <v>34.78050537109375</v>
       </c>
       <c r="I36">
-        <v>40.20409545898438</v>
+        <v>35.55644810994466</v>
       </c>
       <c r="L36">
-        <v>53.71560132365214</v>
+        <v>59.99747561803962</v>
       </c>
       <c r="M36">
-        <v>53.26913245469058</v>
+        <v>56.46382946710993</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1975,34 +1975,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>41.22855758666992</v>
+        <v>36.43452453613281</v>
       </c>
       <c r="C37">
-        <v>41.37797164916992</v>
+        <v>36.55461120605469</v>
       </c>
       <c r="D37">
-        <v>40.66042709350586</v>
+        <v>35.28170394897461</v>
       </c>
       <c r="E37">
-        <v>40.77304458618164</v>
+        <v>35.65459823608398</v>
       </c>
       <c r="F37">
-        <v>4698304</v>
+        <v>25697152</v>
       </c>
       <c r="G37">
-        <v>40.75427096961982</v>
+        <v>35.47315064658182</v>
       </c>
       <c r="H37">
-        <v>40.23409576416016</v>
+        <v>34.84299488067627</v>
       </c>
       <c r="I37">
-        <v>40.22745564778646</v>
+        <v>35.44486452738444</v>
       </c>
       <c r="L37">
-        <v>49.62289801392254</v>
+        <v>52.73897076454241</v>
       </c>
       <c r="M37">
-        <v>50.3966491749193</v>
+        <v>51.56124009520597</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2010,34 +2010,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>40.76864624023438</v>
+        <v>35.65256500244141</v>
       </c>
       <c r="C38">
-        <v>40.9929313659668</v>
+        <v>35.72449493408203</v>
       </c>
       <c r="D38">
-        <v>40.46870040893555</v>
+        <v>34.81563186645508</v>
       </c>
       <c r="E38">
-        <v>40.65165710449219</v>
+        <v>35.03987503051758</v>
       </c>
       <c r="F38">
-        <v>858304</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>40.7449424364264</v>
+        <v>35.43376195421234</v>
       </c>
       <c r="H38">
-        <v>40.27847003936768</v>
+        <v>34.85466117858887</v>
       </c>
       <c r="I38">
-        <v>40.25237655639648</v>
+        <v>35.3160711924235</v>
       </c>
       <c r="L38">
-        <v>48.52682734224227</v>
+        <v>47.55190226973812</v>
       </c>
       <c r="M38">
-        <v>49.63708038229282</v>
+        <v>47.96651709845439</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2045,34 +2045,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>40.64593124389648</v>
+        <v>35.04272842407227</v>
       </c>
       <c r="C39">
-        <v>40.96373748779297</v>
+        <v>35.41526794433594</v>
       </c>
       <c r="D39">
-        <v>40.556396484375</v>
+        <v>33.86521148681641</v>
       </c>
       <c r="E39">
-        <v>40.73219299316406</v>
+        <v>34.69346237182617</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>130497152</v>
       </c>
       <c r="G39">
-        <v>40.74378339612982</v>
+        <v>35.36646199217724</v>
       </c>
       <c r="H39">
-        <v>40.31586933135986</v>
+        <v>34.84008903503418</v>
       </c>
       <c r="I39">
-        <v>40.24168434143066</v>
+        <v>35.18135655721029</v>
       </c>
       <c r="L39">
-        <v>49.36166858570551</v>
+        <v>44.76092648560926</v>
       </c>
       <c r="M39">
-        <v>50.1736483927043</v>
+        <v>46.01944393077744</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2080,34 +2080,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>40.73541259765625</v>
+        <v>34.68918991088867</v>
       </c>
       <c r="C40">
-        <v>41.23423004150391</v>
+        <v>34.8258056640625</v>
       </c>
       <c r="D40">
-        <v>40.65413284301758</v>
+        <v>34.20103073120117</v>
       </c>
       <c r="E40">
-        <v>40.73414993286133</v>
+        <v>34.4425163269043</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>40.74290762674178</v>
+        <v>35.28246693169788</v>
       </c>
       <c r="H40">
-        <v>40.38248710632324</v>
+        <v>34.82564468383789</v>
       </c>
       <c r="I40">
-        <v>40.24467887878418</v>
+        <v>35.09474182128906</v>
       </c>
       <c r="L40">
-        <v>49.38411000635929</v>
+        <v>42.71761626502924</v>
       </c>
       <c r="M40">
-        <v>50.18753590879015</v>
+        <v>44.60685128757424</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2115,34 +2115,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>40.74550628662109</v>
+        <v>34.44420623779297</v>
       </c>
       <c r="C41">
-        <v>41.40471649169922</v>
+        <v>34.70661544799805</v>
       </c>
       <c r="D41">
-        <v>39.38513946533203</v>
+        <v>34.17142868041992</v>
       </c>
       <c r="E41">
-        <v>39.38513946533203</v>
+        <v>34.17142868041992</v>
       </c>
       <c r="F41">
-        <v>39639808</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>40.61947415752271</v>
+        <v>35.18146345430897</v>
       </c>
       <c r="H41">
-        <v>40.40842876434326</v>
+        <v>34.80399265289306</v>
       </c>
       <c r="I41">
-        <v>40.16025009155273</v>
+        <v>34.99701449076335</v>
       </c>
       <c r="L41">
-        <v>36.75272649721699</v>
+        <v>40.47231225722675</v>
       </c>
       <c r="M41">
-        <v>41.58338718855534</v>
+        <v>43.06886297511038</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2150,37 +2150,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>39.38752746582031</v>
+        <v>34.17282867431641</v>
       </c>
       <c r="C42">
-        <v>39.38752746582031</v>
+        <v>35.18193054199219</v>
       </c>
       <c r="D42">
-        <v>34.12448501586914</v>
+        <v>33.81027603149414</v>
       </c>
       <c r="E42">
-        <v>36.87654495239258</v>
+        <v>34.97212219238281</v>
       </c>
       <c r="F42">
-        <v>466270144</v>
+        <v>6812032</v>
       </c>
       <c r="G42">
-        <v>40.27920786614724</v>
+        <v>35.1624324304975</v>
       </c>
       <c r="H42">
-        <v>40.24665718078613</v>
+        <v>34.82679424285889</v>
       </c>
       <c r="I42">
-        <v>40.06066907246908</v>
+        <v>34.94408238728841</v>
       </c>
       <c r="L42">
-        <v>23.9416535761338</v>
+        <v>49.32319300867825</v>
       </c>
       <c r="M42">
-        <v>30.95544982537092</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
+        <v>48.69549173733017</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2188,37 +2185,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>36.91463851928711</v>
+        <v>34.97571563720703</v>
       </c>
       <c r="C43">
-        <v>37.17461776733398</v>
+        <v>34.97675323486328</v>
       </c>
       <c r="D43">
-        <v>36.00888824462891</v>
+        <v>33.53670501708984</v>
       </c>
       <c r="E43">
-        <v>36.2867431640625</v>
+        <v>34.63236618041992</v>
       </c>
       <c r="F43">
-        <v>111229568</v>
+        <v>2612416</v>
       </c>
       <c r="G43">
-        <v>39.91625652959408</v>
+        <v>35.11424458958135</v>
       </c>
       <c r="H43">
-        <v>40.06347789764404</v>
+        <v>34.804807472229</v>
       </c>
       <c r="I43">
-        <v>39.92319157918294</v>
+        <v>34.89726333618164</v>
       </c>
       <c r="L43">
-        <v>21.92060557789559</v>
+        <v>46.05436803960687</v>
       </c>
       <c r="M43">
-        <v>29.07399361328228</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
+        <v>46.59128402508619</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2226,37 +2220,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>36.28866577148438</v>
+        <v>34.73241806030273</v>
       </c>
       <c r="C44">
-        <v>37.40358352661133</v>
+        <v>35.79545974731445</v>
       </c>
       <c r="D44">
-        <v>36.26885223388672</v>
+        <v>34.5687370300293</v>
       </c>
       <c r="E44">
-        <v>36.79294204711914</v>
+        <v>35.40071487426758</v>
       </c>
       <c r="F44">
-        <v>52184448</v>
+        <v>42510208</v>
       </c>
       <c r="G44">
-        <v>39.63231884936909</v>
+        <v>35.14028734273464</v>
       </c>
       <c r="H44">
-        <v>39.93808422088623</v>
+        <v>34.83022270202637</v>
       </c>
       <c r="I44">
-        <v>39.80929705301921</v>
+        <v>34.88526166280111</v>
       </c>
       <c r="L44">
-        <v>27.80494300750338</v>
+        <v>53.83779352162048</v>
       </c>
       <c r="M44">
-        <v>32.84646254510573</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
+        <v>51.67676191861007</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2264,36 +2255,36 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>36.79512786865234</v>
+        <v>35.40065383911133</v>
       </c>
       <c r="C45">
-        <v>37.1689682006836</v>
+        <v>39.45473861694336</v>
       </c>
       <c r="D45">
-        <v>36.34981536865234</v>
+        <v>34.73271179199219</v>
       </c>
       <c r="E45">
-        <v>36.92206573486328</v>
+        <v>38.4644660949707</v>
       </c>
       <c r="F45">
-        <v>15513600</v>
+        <v>209317696</v>
       </c>
       <c r="G45">
-        <v>39.38593220259583</v>
+        <v>35.44248541111974</v>
       </c>
       <c r="H45">
-        <v>39.81609725952148</v>
+        <v>35.01697483062744</v>
       </c>
       <c r="I45">
-        <v>39.71359596252442</v>
+        <v>34.95306040445963</v>
       </c>
       <c r="L45">
-        <v>29.33326002892073</v>
+        <v>71.97594756801274</v>
       </c>
       <c r="M45">
-        <v>33.81353447206008</v>
-      </c>
-      <c r="N45" t="s">
+        <v>65.70103757577805</v>
+      </c>
+      <c r="O45" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2302,36 +2293,36 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>36.99082946777344</v>
+        <v>38.50691604614258</v>
       </c>
       <c r="C46">
-        <v>37.33736038208008</v>
+        <v>38.70732879638672</v>
       </c>
       <c r="D46">
-        <v>36.75493621826172</v>
+        <v>38.16723251342773</v>
       </c>
       <c r="E46">
-        <v>36.75493621826172</v>
+        <v>38.62393188476562</v>
       </c>
       <c r="F46">
-        <v>4661376</v>
+        <v>70483264</v>
       </c>
       <c r="G46">
-        <v>39.14675074947454</v>
+        <v>35.73170781781482</v>
       </c>
       <c r="H46">
-        <v>39.72687149047852</v>
+        <v>35.20184593200683</v>
       </c>
       <c r="I46">
-        <v>39.63279393513997</v>
+        <v>35.05685297648112</v>
       </c>
       <c r="L46">
-        <v>28.45609551269422</v>
+        <v>72.606215364202</v>
       </c>
       <c r="M46">
-        <v>33.14813733133352</v>
-      </c>
-      <c r="N46" t="s">
+        <v>66.25006752291702</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2340,34 +2331,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>36.71024703979492</v>
+        <v>38.73868560791016</v>
       </c>
       <c r="C47">
-        <v>37.11501312255859</v>
+        <v>39.24837112426758</v>
       </c>
       <c r="D47">
-        <v>36.31148910522461</v>
+        <v>37.64054870605469</v>
       </c>
       <c r="E47">
-        <v>37.02619934082031</v>
+        <v>38.28403091430664</v>
       </c>
       <c r="F47">
-        <v>2716544</v>
+        <v>94270976</v>
       </c>
       <c r="G47">
-        <v>38.9539733486878</v>
+        <v>35.96373719022317</v>
       </c>
       <c r="H47">
-        <v>39.65173015594483</v>
+        <v>35.43469696044922</v>
       </c>
       <c r="I47">
-        <v>39.56148287455241</v>
+        <v>35.18616040547689</v>
       </c>
       <c r="L47">
-        <v>32.16029846419769</v>
+        <v>68.89091822986872</v>
       </c>
       <c r="M47">
-        <v>35.37113582087834</v>
+        <v>63.90206007364062</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2375,4883 +2366,4889 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>37.02532196044922</v>
+        <v>38.32020568847656</v>
       </c>
       <c r="C48">
-        <v>39.00210571289063</v>
+        <v>39.72669219970703</v>
       </c>
       <c r="D48">
-        <v>36.94594955444336</v>
+        <v>38.32020568847656</v>
       </c>
       <c r="E48">
-        <v>39.00210571289063</v>
+        <v>39.72669219970703</v>
       </c>
       <c r="F48">
-        <v>13973440</v>
+        <v>46424448</v>
       </c>
       <c r="G48">
-        <v>38.95834901816078</v>
+        <v>36.30582400926716</v>
       </c>
       <c r="H48">
-        <v>39.67274475097656</v>
+        <v>35.82113018035889</v>
       </c>
       <c r="I48">
-        <v>39.53608067830404</v>
+        <v>35.3501651763916</v>
       </c>
       <c r="L48">
-        <v>52.36905072907602</v>
+        <v>74.99941580081338</v>
       </c>
       <c r="M48">
-        <v>48.7417099942837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>68.93459523612903</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>39.07535171508789</v>
+        <v>39.7242431640625</v>
       </c>
       <c r="C49">
-        <v>39.32992935180664</v>
+        <v>41.62960433959961</v>
       </c>
       <c r="D49">
-        <v>38.19528961181641</v>
+        <v>39.18696594238281</v>
       </c>
       <c r="E49">
-        <v>38.9036750793457</v>
+        <v>39.40642547607422</v>
       </c>
       <c r="F49">
-        <v>25673344</v>
+        <v>254577792</v>
       </c>
       <c r="G49">
-        <v>38.95337866008668</v>
+        <v>36.58769686988598</v>
       </c>
       <c r="H49">
-        <v>39.64330329895019</v>
+        <v>36.15454425811767</v>
       </c>
       <c r="I49">
-        <v>39.50006294250488</v>
+        <v>35.49754918416341</v>
       </c>
       <c r="L49">
-        <v>51.50913426688297</v>
+        <v>71.4934057162075</v>
       </c>
       <c r="M49">
-        <v>48.20667850244548</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>66.71110782084179</v>
+      </c>
+      <c r="O49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>38.90255355834961</v>
+        <v>39.44113922119141</v>
       </c>
       <c r="C50">
-        <v>39.35528945922852</v>
+        <v>39.92914962768555</v>
       </c>
       <c r="D50">
-        <v>38.47356033325195</v>
+        <v>38.60101318359375</v>
       </c>
       <c r="E50">
-        <v>38.73490142822266</v>
+        <v>39.92914962768555</v>
       </c>
       <c r="F50">
-        <v>13299840</v>
+        <v>68258944</v>
       </c>
       <c r="G50">
-        <v>38.93351709355359</v>
+        <v>36.89146530241322</v>
       </c>
       <c r="H50">
-        <v>39.5687671661377</v>
+        <v>36.4654369354248</v>
       </c>
       <c r="I50">
-        <v>39.47783317565918</v>
+        <v>35.67080739339193</v>
       </c>
       <c r="L50">
-        <v>49.92770400881651</v>
+        <v>73.74686504152317</v>
       </c>
       <c r="M50">
-        <v>47.24897727299122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>68.49715394275074</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>38.73728561401367</v>
+        <v>39.93471908569336</v>
       </c>
       <c r="C51">
-        <v>38.90220260620117</v>
+        <v>40.35325622558594</v>
       </c>
       <c r="D51">
-        <v>37.04095840454102</v>
+        <v>39.1504020690918</v>
       </c>
       <c r="E51">
-        <v>37.04095840454102</v>
+        <v>39.45186233520508</v>
       </c>
       <c r="F51">
-        <v>56117248</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>38.76146630364335</v>
+        <v>37.12422866903066</v>
       </c>
       <c r="H51">
-        <v>39.36949348449707</v>
+        <v>36.72589893341065</v>
       </c>
       <c r="I51">
-        <v>39.41698824564616</v>
+        <v>35.83238716125489</v>
       </c>
       <c r="L51">
-        <v>37.07501928532977</v>
+        <v>68.20825067505419</v>
       </c>
       <c r="M51">
-        <v>38.89654917952922</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>65.06450458326346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>37.0471076965332</v>
+        <v>39.40984344482422</v>
       </c>
       <c r="C52">
-        <v>37.26976776123047</v>
+        <v>39.51717758178711</v>
       </c>
       <c r="D52">
-        <v>36.84474563598633</v>
+        <v>38.46576690673828</v>
       </c>
       <c r="E52">
-        <v>37.10324859619141</v>
+        <v>38.92258453369141</v>
       </c>
       <c r="F52">
-        <v>26372224</v>
+        <v>61952</v>
       </c>
       <c r="G52">
-        <v>38.61071923932954</v>
+        <v>37.287715565818</v>
       </c>
       <c r="H52">
-        <v>39.13139762878418</v>
+        <v>36.86095523834229</v>
       </c>
       <c r="I52">
-        <v>39.31669731140137</v>
+        <v>35.97927029927572</v>
       </c>
       <c r="L52">
-        <v>37.7380722384578</v>
+        <v>62.36499626396803</v>
       </c>
       <c r="M52">
-        <v>39.32132712350101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>61.39044504933697</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>37.10308456420898</v>
+        <v>38.91782760620117</v>
       </c>
       <c r="C53">
-        <v>37.68422698974609</v>
+        <v>39.29416275024414</v>
       </c>
       <c r="D53">
-        <v>36.55444717407227</v>
+        <v>38.56183624267578</v>
       </c>
       <c r="E53">
-        <v>36.56008529663086</v>
+        <v>38.66364288330078</v>
       </c>
       <c r="F53">
-        <v>24445824</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>38.42429797181148</v>
+        <v>37.41279986740734</v>
       </c>
       <c r="H53">
-        <v>38.8569465637207</v>
+        <v>36.9899938583374</v>
       </c>
       <c r="I53">
-        <v>39.20368919372559</v>
+        <v>36.09898834228515</v>
       </c>
       <c r="L53">
-        <v>34.20259936740948</v>
+        <v>59.55684608649091</v>
       </c>
       <c r="M53">
-        <v>36.91166948257321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>59.61677252555577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>36.55591583251953</v>
+        <v>38.66653823852539</v>
       </c>
       <c r="C54">
-        <v>36.95320510864258</v>
+        <v>38.96629333496094</v>
       </c>
       <c r="D54">
-        <v>35.86147689819336</v>
+        <v>38.26197814941406</v>
       </c>
       <c r="E54">
-        <v>36.03693771362305</v>
+        <v>38.62263488769531</v>
       </c>
       <c r="F54">
-        <v>17099008</v>
+        <v>368000</v>
       </c>
       <c r="G54">
-        <v>38.20726522106708</v>
+        <v>37.5227848692517</v>
       </c>
       <c r="H54">
-        <v>38.49500980377197</v>
+        <v>37.127565574646</v>
       </c>
       <c r="I54">
-        <v>39.0948932647705</v>
+        <v>36.22332916259766</v>
       </c>
       <c r="L54">
-        <v>31.05061317567989</v>
+        <v>59.08286595640881</v>
       </c>
       <c r="M54">
-        <v>34.70566669717978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>59.32445307508402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>36.09261703491211</v>
+        <v>38.61752319335938</v>
       </c>
       <c r="C55">
-        <v>36.2437858581543</v>
+        <v>38.90864562988281</v>
       </c>
       <c r="D55">
-        <v>35.23831176757812</v>
+        <v>37.25000762939453</v>
       </c>
       <c r="E55">
-        <v>35.76076507568359</v>
+        <v>37.34642791748047</v>
       </c>
       <c r="F55">
-        <v>2756416</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>37.9848561169413</v>
+        <v>37.50675241909067</v>
       </c>
       <c r="H55">
-        <v>38.16559982299805</v>
+        <v>37.14352626800537</v>
       </c>
       <c r="I55">
-        <v>38.97485860188802</v>
+        <v>36.31056264241536</v>
       </c>
       <c r="L55">
-        <v>29.43936450766263</v>
+        <v>46.20781468854791</v>
       </c>
       <c r="M55">
-        <v>33.5652251230938</v>
-      </c>
-      <c r="N55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>50.9514201424291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>35.76310348510742</v>
+        <v>37.32616806030273</v>
       </c>
       <c r="C56">
-        <v>36.50455474853516</v>
+        <v>37.6704216003418</v>
       </c>
       <c r="D56">
-        <v>35.76310348510742</v>
+        <v>36.14856338500977</v>
       </c>
       <c r="E56">
-        <v>36.43050384521485</v>
+        <v>36.49839019775391</v>
       </c>
       <c r="F56">
-        <v>1217664</v>
+        <v>27158784</v>
       </c>
       <c r="G56">
-        <v>37.84355136496617</v>
+        <v>37.41508312624188</v>
       </c>
       <c r="H56">
-        <v>37.92543983459473</v>
+        <v>37.14736614227295</v>
       </c>
       <c r="I56">
-        <v>38.90456034342448</v>
+        <v>36.3629586537679</v>
       </c>
       <c r="L56">
-        <v>38.1898032802829</v>
+        <v>39.734820095819</v>
       </c>
       <c r="M56">
-        <v>38.8159620515571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>46.27733970302739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>36.43449783325195</v>
+        <v>36.5136833190918</v>
       </c>
       <c r="C57">
-        <v>36.46504974365234</v>
+        <v>37.02303695678711</v>
       </c>
       <c r="D57">
-        <v>35.49930191040039</v>
+        <v>35.04478073120117</v>
       </c>
       <c r="E57">
-        <v>35.51015472412109</v>
+        <v>35.84965133666992</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>75402816</v>
       </c>
       <c r="G57">
-        <v>37.63142439761661</v>
+        <v>37.27277114537171</v>
       </c>
       <c r="H57">
-        <v>37.6622953414917</v>
+        <v>37.15711879730225</v>
       </c>
       <c r="I57">
-        <v>38.80393129984538</v>
+        <v>36.43704668680827</v>
       </c>
       <c r="L57">
-        <v>32.04595776180047</v>
+        <v>35.4598421441944</v>
       </c>
       <c r="M57">
-        <v>34.75127276479509</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>43.02566628271504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>35.51110076904297</v>
+        <v>35.86818695068359</v>
       </c>
       <c r="C58">
-        <v>35.70028686523438</v>
+        <v>36.06823348999024</v>
       </c>
       <c r="D58">
-        <v>33.64159393310547</v>
+        <v>34.86716842651367</v>
       </c>
       <c r="E58">
-        <v>34.40480804443359</v>
+        <v>35.44009399414062</v>
       </c>
       <c r="F58">
-        <v>66209536</v>
+        <v>17647680</v>
       </c>
       <c r="G58">
-        <v>37.33809563823633</v>
+        <v>37.10616413162342</v>
       </c>
       <c r="H58">
-        <v>37.34995288848877</v>
+        <v>37.1771297454834</v>
       </c>
       <c r="I58">
-        <v>38.6646977742513</v>
+        <v>36.5517822265625</v>
       </c>
       <c r="L58">
-        <v>26.32401588790401</v>
+        <v>32.94263859906371</v>
       </c>
       <c r="M58">
-        <v>30.60599115986302</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>41.06398212946542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>34.41415405273438</v>
+        <v>35.44255447387695</v>
       </c>
       <c r="C59">
-        <v>34.97915267944336</v>
+        <v>36.03591156005859</v>
       </c>
       <c r="D59">
-        <v>34.24775695800781</v>
+        <v>35.41785049438477</v>
       </c>
       <c r="E59">
-        <v>34.80654907226562</v>
+        <v>35.93338012695312</v>
       </c>
       <c r="F59">
-        <v>1359872</v>
+        <v>9038592</v>
       </c>
       <c r="G59">
-        <v>37.1079550413299</v>
+        <v>36.99954740392612</v>
       </c>
       <c r="H59">
-        <v>37.05367069244384</v>
+        <v>37.23912563323974</v>
       </c>
       <c r="I59">
-        <v>38.50849927266439</v>
+        <v>36.65829010009766</v>
       </c>
       <c r="L59">
-        <v>31.33696589843423</v>
+        <v>38.82673662051839</v>
       </c>
       <c r="M59">
-        <v>33.70141376733125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>44.35475860465093</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>34.80559539794922</v>
+        <v>35.93243408203125</v>
       </c>
       <c r="C60">
-        <v>35.11139297485352</v>
+        <v>36.02489471435547</v>
       </c>
       <c r="D60">
-        <v>34.52124786376953</v>
+        <v>35.63383865356445</v>
       </c>
       <c r="E60">
-        <v>34.98490524291992</v>
+        <v>35.87586212158203</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>36.91495051420172</v>
+        <v>36.8973941964403</v>
       </c>
       <c r="H60">
-        <v>36.76620845794677</v>
+        <v>37.31079292297363</v>
       </c>
       <c r="I60">
-        <v>38.33380864461263</v>
+        <v>36.73044230143229</v>
       </c>
       <c r="L60">
-        <v>33.59365374146817</v>
+        <v>38.38491048421334</v>
       </c>
       <c r="M60">
-        <v>35.08582199456945</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>44.04593321008944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>34.98445892333984</v>
+        <v>35.88335800170898</v>
       </c>
       <c r="C61">
-        <v>35.32723236083984</v>
+        <v>36.25338363647461</v>
       </c>
       <c r="D61">
-        <v>34.65338897705078</v>
+        <v>35.69211578369141</v>
       </c>
       <c r="E61">
-        <v>34.73140335083008</v>
+        <v>36.12295913696289</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>36.71644622662248</v>
+        <v>36.82699100921508</v>
       </c>
       <c r="H61">
-        <v>36.53352165222168</v>
+        <v>37.40836944580078</v>
       </c>
       <c r="I61">
-        <v>38.12397435506185</v>
+        <v>36.79312019348144</v>
       </c>
       <c r="L61">
-        <v>31.91636617947727</v>
+        <v>41.59688947924093</v>
       </c>
       <c r="M61">
-        <v>33.99913245000354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>45.79209224846827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>34.73565292358398</v>
+        <v>36.12295913696289</v>
       </c>
       <c r="C62">
-        <v>34.85739135742188</v>
+        <v>36.39951324462891</v>
       </c>
       <c r="D62">
-        <v>33.85182952880859</v>
+        <v>35.90626907348633</v>
       </c>
       <c r="E62">
-        <v>34.60446929931641</v>
+        <v>36.29444122314453</v>
       </c>
       <c r="F62">
-        <v>5777024</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>36.52444832414011</v>
+        <v>36.77857739229957</v>
       </c>
       <c r="H62">
-        <v>36.41991786956787</v>
+        <v>37.47448539733887</v>
       </c>
       <c r="I62">
-        <v>37.88195114135742</v>
+        <v>36.79555295308431</v>
       </c>
       <c r="L62">
-        <v>31.04325999074479</v>
+        <v>43.88091006269509</v>
       </c>
       <c r="M62">
-        <v>33.4406239015431</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>47.02757847348528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>34.62958526611328</v>
+        <v>36.28928375244141</v>
       </c>
       <c r="C63">
-        <v>35.38116455078125</v>
+        <v>36.58984375</v>
       </c>
       <c r="D63">
-        <v>34.40153884887695</v>
+        <v>36.2119140625</v>
       </c>
       <c r="E63">
-        <v>34.51609039306641</v>
+        <v>36.45077896118164</v>
       </c>
       <c r="F63">
-        <v>33155776</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>36.34187033040613</v>
+        <v>36.74877753492521</v>
       </c>
       <c r="H63">
-        <v>36.33138523101807</v>
+        <v>37.56540603637696</v>
       </c>
       <c r="I63">
-        <v>37.63085060119629</v>
+        <v>36.80781656901042</v>
       </c>
       <c r="L63">
-        <v>30.3920271419226</v>
+        <v>46.04508630804846</v>
       </c>
       <c r="M63">
-        <v>33.03373593511159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>48.18700624331519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>34.5189323425293</v>
+        <v>36.45020294189453</v>
       </c>
       <c r="C64">
-        <v>35.7130126953125</v>
+        <v>36.52668380737305</v>
       </c>
       <c r="D64">
-        <v>34.5189323425293</v>
+        <v>35.89763259887695</v>
       </c>
       <c r="E64">
-        <v>35.07210159301758</v>
+        <v>36.00288009643555</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>36.22643680882535</v>
+        <v>36.6809686768807</v>
       </c>
       <c r="H64">
-        <v>36.24534320831299</v>
+        <v>37.59551429748535</v>
       </c>
       <c r="I64">
-        <v>37.35739822387696</v>
+        <v>36.81220588684082</v>
       </c>
       <c r="L64">
-        <v>39.39101069596879</v>
+        <v>40.95466170682588</v>
       </c>
       <c r="M64">
-        <v>38.13377705194373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>45.13879767381223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>35.07590484619141</v>
+        <v>36.016845703125</v>
       </c>
       <c r="C65">
-        <v>35.27896499633789</v>
+        <v>37.12538909912109</v>
       </c>
       <c r="D65">
-        <v>34.46297836303711</v>
+        <v>35.87091827392578</v>
       </c>
       <c r="E65">
-        <v>34.89241027832031</v>
+        <v>36.31659698486328</v>
       </c>
       <c r="F65">
-        <v>4915456</v>
+        <v>34160000</v>
       </c>
       <c r="G65">
-        <v>36.10516166968853</v>
+        <v>36.64784397760638</v>
       </c>
       <c r="H65">
-        <v>36.14386043548584</v>
+        <v>37.48812084197998</v>
       </c>
       <c r="I65">
-        <v>37.10884641011556</v>
+        <v>36.7885186513265</v>
       </c>
       <c r="L65">
-        <v>37.62261472870703</v>
+        <v>45.68608983090763</v>
       </c>
       <c r="M65">
-        <v>37.14909930192258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>47.63729796250039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>34.89383316040039</v>
+        <v>36.34055328369141</v>
       </c>
       <c r="C66">
-        <v>35.70709609985352</v>
+        <v>36.92449569702149</v>
       </c>
       <c r="D66">
-        <v>34.62063980102539</v>
+        <v>36.31714248657227</v>
       </c>
       <c r="E66">
-        <v>34.72942352294922</v>
+        <v>36.44004058837891</v>
       </c>
       <c r="F66">
-        <v>22715264</v>
+        <v>9182432</v>
       </c>
       <c r="G66">
-        <v>35.98009456543949</v>
+        <v>36.62895276040388</v>
       </c>
       <c r="H66">
-        <v>36.04258480072021</v>
+        <v>37.37892627716064</v>
       </c>
       <c r="I66">
-        <v>36.89203707377116</v>
+        <v>36.78913358052571</v>
       </c>
       <c r="L66">
-        <v>35.9746180436292</v>
+        <v>47.54673008941259</v>
       </c>
       <c r="M66">
-        <v>36.23514554388447</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>48.62870046398461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>34.72897720336914</v>
+        <v>36.43968963623047</v>
       </c>
       <c r="C67">
-        <v>35.44018936157227</v>
+        <v>37.2036018371582</v>
       </c>
       <c r="D67">
-        <v>34.38080596923828</v>
+        <v>36.22281646728516</v>
       </c>
       <c r="E67">
-        <v>34.92650985717773</v>
+        <v>37.20059204101562</v>
       </c>
       <c r="F67">
-        <v>18747200</v>
+        <v>18291040</v>
       </c>
       <c r="G67">
-        <v>35.88431413741569</v>
+        <v>36.68091996773222</v>
       </c>
       <c r="H67">
-        <v>35.93760032653809</v>
+        <v>37.3247543334961</v>
       </c>
       <c r="I67">
-        <v>36.69715258280436</v>
+        <v>36.84066670735677</v>
       </c>
       <c r="L67">
-        <v>39.57525163682216</v>
+        <v>57.61165119263193</v>
       </c>
       <c r="M67">
-        <v>38.21462280700511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>54.36193697143873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>34.92971801757812</v>
+        <v>37.20394134521485</v>
       </c>
       <c r="C68">
-        <v>34.97461318969727</v>
+        <v>37.78963851928711</v>
       </c>
       <c r="D68">
-        <v>33.28334808349609</v>
+        <v>36.12723922729492</v>
       </c>
       <c r="E68">
-        <v>33.62701034545898</v>
+        <v>36.12723922729492</v>
       </c>
       <c r="F68">
-        <v>27026048</v>
+        <v>57305184</v>
       </c>
       <c r="G68">
-        <v>35.67910470178327</v>
+        <v>36.63058535496519</v>
       </c>
       <c r="H68">
-        <v>35.6688455581665</v>
+        <v>37.14478168487549</v>
       </c>
       <c r="I68">
-        <v>36.46299769083659</v>
+        <v>36.87691218058269</v>
       </c>
       <c r="L68">
-        <v>27.92581849296896</v>
+        <v>44.15863014200106</v>
       </c>
       <c r="M68">
-        <v>31.31238933445027</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>46.4782766405562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>33.63080978393555</v>
+        <v>36.13131713867188</v>
       </c>
       <c r="C69">
-        <v>33.90854263305664</v>
+        <v>36.51833343505859</v>
       </c>
       <c r="D69">
-        <v>31.48079490661621</v>
+        <v>35.33651351928711</v>
       </c>
       <c r="E69">
-        <v>31.99802780151367</v>
+        <v>35.33651351928711</v>
       </c>
       <c r="F69">
-        <v>90244288</v>
+        <v>32163648</v>
       </c>
       <c r="G69">
-        <v>35.3444613472133</v>
+        <v>36.51294246081264</v>
       </c>
       <c r="H69">
-        <v>35.3235631942749</v>
+        <v>36.94128608703613</v>
       </c>
       <c r="I69">
-        <v>36.17185885111491</v>
+        <v>36.89834721883138</v>
       </c>
       <c r="L69">
-        <v>19.73388345635041</v>
+        <v>36.99838144636342</v>
       </c>
       <c r="M69">
-        <v>25.17419478064897</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>41.6825412414365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>31.99407005310058</v>
+        <v>35.33125686645508</v>
       </c>
       <c r="C70">
-        <v>33.17374801635742</v>
+        <v>36.43513107299805</v>
       </c>
       <c r="D70">
-        <v>31.77258682250977</v>
+        <v>35.29653930664062</v>
       </c>
       <c r="E70">
-        <v>32.73814392089844</v>
+        <v>36.03583526611328</v>
       </c>
       <c r="F70">
-        <v>23468608</v>
+        <v>10758848</v>
       </c>
       <c r="G70">
-        <v>35.10752339936649</v>
+        <v>36.46956907947633</v>
       </c>
       <c r="H70">
-        <v>35.02372531890869</v>
+        <v>36.74662036895752</v>
       </c>
       <c r="I70">
-        <v>35.90532531738281</v>
+        <v>36.95145785013835</v>
       </c>
       <c r="L70">
-        <v>30.19971498862574</v>
+        <v>45.75047847570074</v>
       </c>
       <c r="M70">
-        <v>31.72306761820777</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>46.90083744082015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>32.73240280151367</v>
+        <v>36.03462982177734</v>
       </c>
       <c r="C71">
-        <v>33.71129608154297</v>
+        <v>36.37201690673828</v>
       </c>
       <c r="D71">
-        <v>32.50151443481445</v>
+        <v>35.79254150390625</v>
       </c>
       <c r="E71">
-        <v>33.71129608154297</v>
+        <v>36.0293197631836</v>
       </c>
       <c r="F71">
-        <v>37167488</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>34.98059364320072</v>
+        <v>36.4295464143588</v>
       </c>
       <c r="H71">
-        <v>34.85724220275879</v>
+        <v>36.57549324035644</v>
       </c>
       <c r="I71">
-        <v>35.71619720458985</v>
+        <v>37.01338755289714</v>
       </c>
       <c r="L71">
-        <v>41.48564431234409</v>
+        <v>45.68395918879406</v>
       </c>
       <c r="M71">
-        <v>39.25168099390021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>46.85876704606545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>33.71259307861328</v>
+        <v>36.02392959594727</v>
       </c>
       <c r="C72">
-        <v>34.47443389892578</v>
+        <v>36.47830963134766</v>
       </c>
       <c r="D72">
-        <v>33.71259307861328</v>
+        <v>35.9140625</v>
       </c>
       <c r="E72">
-        <v>34.24262237548828</v>
+        <v>36.29729843139648</v>
       </c>
       <c r="F72">
-        <v>128924160</v>
+        <v>2826560</v>
       </c>
       <c r="G72">
-        <v>34.91350534613596</v>
+        <v>36.41752387045314</v>
       </c>
       <c r="H72">
-        <v>34.71421089172363</v>
+        <v>36.4442289352417</v>
       </c>
       <c r="I72">
-        <v>35.6283997853597</v>
+        <v>37.05756009419759</v>
       </c>
       <c r="L72">
-        <v>46.77196653165352</v>
+        <v>49.10775869282945</v>
       </c>
       <c r="M72">
-        <v>42.9504599858511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>48.88945622557031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>34.24713134765625</v>
+        <v>36.29895782470703</v>
       </c>
       <c r="C73">
-        <v>36.36847686767578</v>
+        <v>36.44731903076172</v>
       </c>
       <c r="D73">
-        <v>34.03348159790039</v>
+        <v>35.22887802124023</v>
       </c>
       <c r="E73">
-        <v>36.22145843505859</v>
+        <v>35.27046203613281</v>
       </c>
       <c r="F73">
-        <v>144058816</v>
+        <v>9049792</v>
       </c>
       <c r="G73">
-        <v>35.03241017240165</v>
+        <v>36.31324552187856</v>
       </c>
       <c r="H73">
-        <v>34.69727954864502</v>
+        <v>36.2745698928833</v>
       </c>
       <c r="I73">
-        <v>35.62622362772624</v>
+        <v>37.07882995605469</v>
       </c>
       <c r="L73">
-        <v>61.38763386131385</v>
+        <v>38.61499764352115</v>
       </c>
       <c r="M73">
-        <v>54.147854293133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>42.23026684118452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>36.22502517700195</v>
+        <v>35.27485275268555</v>
       </c>
       <c r="C74">
-        <v>36.24313735961914</v>
+        <v>36.73755264282227</v>
       </c>
       <c r="D74">
-        <v>35.63558197021484</v>
+        <v>35.24980545043945</v>
       </c>
       <c r="E74">
-        <v>36.08287048339844</v>
+        <v>36.32652282714844</v>
       </c>
       <c r="F74">
-        <v>44395200</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>35.12790656431044</v>
+        <v>36.31445254963037</v>
       </c>
       <c r="H74">
-        <v>34.69957618713379</v>
+        <v>36.15976428985596</v>
       </c>
       <c r="I74">
-        <v>35.60255457560221</v>
+        <v>37.10969022115071</v>
       </c>
       <c r="L74">
-        <v>60.08766854861339</v>
+        <v>50.78245436052659</v>
       </c>
       <c r="M74">
-        <v>53.35796822778087</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>49.8030547962205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>36.08619689941406</v>
+        <v>36.32699966430664</v>
       </c>
       <c r="C75">
-        <v>36.46529388427734</v>
+        <v>36.4677963256836</v>
       </c>
       <c r="D75">
-        <v>35.28060913085938</v>
+        <v>35.44668579101562</v>
       </c>
       <c r="E75">
-        <v>35.87120056152344</v>
+        <v>35.66467666625977</v>
       </c>
       <c r="F75">
-        <v>8407104</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>35.19547874587526</v>
+        <v>36.2553820147785</v>
       </c>
       <c r="H75">
-        <v>34.70509796142578</v>
+        <v>36.07567672729492</v>
       </c>
       <c r="I75">
-        <v>35.56752573649089</v>
+        <v>37.01636390686035</v>
       </c>
       <c r="L75">
-        <v>57.97806530253396</v>
+        <v>44.55570341436883</v>
       </c>
       <c r="M75">
-        <v>52.10769924948056</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>45.75499631230207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>35.89262008666992</v>
+        <v>35.65319442749023</v>
       </c>
       <c r="C76">
-        <v>37.54158401489258</v>
+        <v>36.18033981323242</v>
       </c>
       <c r="D76">
-        <v>35.89262008666992</v>
+        <v>35.61992263793945</v>
       </c>
       <c r="E76">
-        <v>37.02721405029297</v>
+        <v>36.18033981323242</v>
       </c>
       <c r="F76">
-        <v>70515328</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>35.36200013718597</v>
+        <v>36.24855999645612</v>
       </c>
       <c r="H76">
-        <v>34.73493347167969</v>
+        <v>36.05977420806884</v>
       </c>
       <c r="I76">
-        <v>35.57660166422526</v>
+        <v>36.93491083780925</v>
       </c>
       <c r="L76">
-        <v>65.43426459361744</v>
+        <v>49.93632106840273</v>
       </c>
       <c r="M76">
-        <v>57.90848898272089</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>49.218308811984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>37.02589797973633</v>
+        <v>36.1884651184082</v>
       </c>
       <c r="C77">
-        <v>37.39559173583984</v>
+        <v>36.2193603515625</v>
       </c>
       <c r="D77">
-        <v>36.30938720703125</v>
+        <v>35.50940704345703</v>
       </c>
       <c r="E77">
-        <v>36.42159271240234</v>
+        <v>35.80550003051758</v>
       </c>
       <c r="F77">
-        <v>25937088</v>
+        <v>2908608</v>
       </c>
       <c r="G77">
-        <v>35.4583267349329</v>
+        <v>36.20828181773444</v>
       </c>
       <c r="H77">
-        <v>34.78050537109375</v>
+        <v>36.05756664276123</v>
       </c>
       <c r="I77">
-        <v>35.55644810994466</v>
+        <v>36.85229314168294</v>
       </c>
       <c r="L77">
-        <v>59.23925683509147</v>
+        <v>46.26470582307122</v>
       </c>
       <c r="M77">
-        <v>54.20441993630391</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>46.87547293559156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>36.43452453613281</v>
+        <v>35.80560302734375</v>
       </c>
       <c r="C78">
-        <v>36.55461120605469</v>
+        <v>36.49811172485352</v>
       </c>
       <c r="D78">
-        <v>35.28170394897461</v>
+        <v>35.63246154785156</v>
       </c>
       <c r="E78">
-        <v>35.65459823608398</v>
+        <v>35.77766799926758</v>
       </c>
       <c r="F78">
-        <v>25697152</v>
+        <v>14774720</v>
       </c>
       <c r="G78">
-        <v>35.47616959867391</v>
+        <v>36.16913510696472</v>
       </c>
       <c r="H78">
-        <v>34.84299488067627</v>
+        <v>36.07444534301758</v>
       </c>
       <c r="I78">
-        <v>35.44486452738444</v>
+        <v>36.7206590016683</v>
       </c>
       <c r="L78">
-        <v>52.1982300511491</v>
+        <v>45.98229391680418</v>
       </c>
       <c r="M78">
-        <v>49.85509237140802</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>46.69772897686307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>35.65256500244141</v>
+        <v>35.78007507324219</v>
       </c>
       <c r="C79">
-        <v>35.72449493408203</v>
+        <v>36.2052116394043</v>
       </c>
       <c r="D79">
-        <v>34.81563186645508</v>
+        <v>34.85787582397461</v>
       </c>
       <c r="E79">
-        <v>35.03987503051758</v>
+        <v>35.7044792175293</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>28514208</v>
       </c>
       <c r="G79">
-        <v>35.43650645611424</v>
+        <v>36.12689366247059</v>
       </c>
       <c r="H79">
-        <v>34.85466117858887</v>
+        <v>36.06300029754639</v>
       </c>
       <c r="I79">
-        <v>35.3160711924235</v>
+        <v>36.59726079305013</v>
       </c>
       <c r="L79">
-        <v>47.14570554925965</v>
+        <v>45.16664517911778</v>
       </c>
       <c r="M79">
-        <v>46.62595019890668</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>46.20160462607419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>35.04272842407227</v>
+        <v>35.69953536987305</v>
       </c>
       <c r="C80">
-        <v>35.41526794433594</v>
+        <v>35.83800888061523</v>
       </c>
       <c r="D80">
-        <v>33.86521148681641</v>
+        <v>35.39751052856445</v>
       </c>
       <c r="E80">
-        <v>34.69346237182617</v>
+        <v>35.5117073059082</v>
       </c>
       <c r="F80">
-        <v>130497152</v>
+        <v>5828960</v>
       </c>
       <c r="G80">
-        <v>35.36895699390624</v>
+        <v>36.07096763005583</v>
       </c>
       <c r="H80">
-        <v>34.84008903503418</v>
+        <v>36.04479255676269</v>
       </c>
       <c r="I80">
-        <v>35.18135655721029</v>
+        <v>36.45001271565755</v>
       </c>
       <c r="L80">
-        <v>44.41988802728739</v>
+        <v>42.91118678833067</v>
       </c>
       <c r="M80">
-        <v>44.8625127269633</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>44.85002573862798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>34.68918991088867</v>
+        <v>35.50873565673828</v>
       </c>
       <c r="C81">
-        <v>34.8258056640625</v>
+        <v>36.19022369384766</v>
       </c>
       <c r="D81">
-        <v>34.20103073120117</v>
+        <v>35.50621032714844</v>
       </c>
       <c r="E81">
-        <v>34.4425163269043</v>
+        <v>35.57822036743164</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>15409056</v>
       </c>
       <c r="G81">
-        <v>35.28473511508788</v>
+        <v>36.02617242436272</v>
       </c>
       <c r="H81">
-        <v>34.82564468383789</v>
+        <v>36.01755561828613</v>
       </c>
       <c r="I81">
-        <v>35.09474182128906</v>
+        <v>36.32089131673177</v>
       </c>
       <c r="L81">
-        <v>42.42106066223496</v>
+        <v>43.9967274560885</v>
       </c>
       <c r="M81">
-        <v>43.57675673015072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>45.44306327787564</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>34.44420623779297</v>
+        <v>35.58462142944336</v>
       </c>
       <c r="C82">
-        <v>34.70661544799805</v>
+        <v>36.385986328125</v>
       </c>
       <c r="D82">
-        <v>34.17142868041992</v>
+        <v>35.52153396606445</v>
       </c>
       <c r="E82">
-        <v>34.17142868041992</v>
+        <v>36.27383804321289</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>30957088</v>
       </c>
       <c r="G82">
-        <v>35.18352543920897</v>
+        <v>36.04868748062182</v>
       </c>
       <c r="H82">
-        <v>34.80399265289306</v>
+        <v>36.01652545928955</v>
       </c>
       <c r="I82">
-        <v>34.99701449076335</v>
+        <v>36.23259976704915</v>
       </c>
       <c r="L82">
-        <v>40.2214902022672</v>
+        <v>54.23534786234789</v>
       </c>
       <c r="M82">
-        <v>42.17070944393539</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>51.33674137881593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>34.17282867431641</v>
+        <v>36.26970672607422</v>
       </c>
       <c r="C83">
-        <v>35.18193054199219</v>
+        <v>36.26970672607422</v>
       </c>
       <c r="D83">
-        <v>33.81027603149414</v>
+        <v>35.40871047973633</v>
       </c>
       <c r="E83">
-        <v>34.97212219238281</v>
+        <v>35.40871047973633</v>
       </c>
       <c r="F83">
-        <v>6812032</v>
+        <v>5851936</v>
       </c>
       <c r="G83">
-        <v>35.16430696222478</v>
+        <v>35.9905077532686</v>
       </c>
       <c r="H83">
-        <v>34.82679424285889</v>
+        <v>35.96442203521728</v>
       </c>
       <c r="I83">
-        <v>34.94408238728841</v>
+        <v>36.12410202026367</v>
       </c>
       <c r="L83">
-        <v>49.00715626939638</v>
+        <v>43.18809799564723</v>
       </c>
       <c r="M83">
-        <v>47.5534473638501</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>44.8478267452814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>34.97571563720703</v>
+        <v>35.40900802612305</v>
       </c>
       <c r="C84">
-        <v>34.97675323486328</v>
+        <v>36.43163681030273</v>
       </c>
       <c r="D84">
-        <v>33.53670501708984</v>
+        <v>35.36563873291016</v>
       </c>
       <c r="E84">
-        <v>34.63236618041992</v>
+        <v>36.22551727294922</v>
       </c>
       <c r="F84">
-        <v>2612416</v>
+        <v>23898592</v>
       </c>
       <c r="G84">
-        <v>35.11594870933342</v>
+        <v>36.01187225505774</v>
       </c>
       <c r="H84">
-        <v>34.804807472229</v>
+        <v>35.97555389404297</v>
       </c>
       <c r="I84">
-        <v>34.89726333618164</v>
+        <v>36.04419809977214</v>
       </c>
       <c r="L84">
-        <v>45.79427857941384</v>
+        <v>53.29325496265802</v>
       </c>
       <c r="M84">
-        <v>45.61330998355271</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>51.12871922077736</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>34.73241806030273</v>
+        <v>36.23518371582031</v>
       </c>
       <c r="C85">
-        <v>35.79545974731445</v>
+        <v>36.43471527099609</v>
       </c>
       <c r="D85">
-        <v>34.5687370300293</v>
+        <v>35.78070449829102</v>
       </c>
       <c r="E85">
-        <v>35.40071487426758</v>
+        <v>35.78237915039062</v>
       </c>
       <c r="F85">
-        <v>42510208</v>
+        <v>9896736</v>
       </c>
       <c r="G85">
-        <v>35.14183654250925</v>
+        <v>35.99100924554255</v>
       </c>
       <c r="H85">
-        <v>34.83022270202637</v>
+        <v>35.94884300231934</v>
       </c>
       <c r="I85">
-        <v>34.88526166280111</v>
+        <v>35.99206314086914</v>
       </c>
       <c r="L85">
-        <v>53.54299286961565</v>
+        <v>48.0742409235645</v>
       </c>
       <c r="M85">
-        <v>50.5289234827482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>47.93900207208998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>35.40065383911133</v>
+        <v>35.7837028503418</v>
       </c>
       <c r="C86">
-        <v>39.45473861694336</v>
+        <v>36.04213714599609</v>
       </c>
       <c r="D86">
-        <v>34.73271179199219</v>
+        <v>35.33757400512695</v>
       </c>
       <c r="E86">
-        <v>38.4644660949707</v>
+        <v>35.90742874145508</v>
       </c>
       <c r="F86">
-        <v>209317696</v>
+        <v>10825600</v>
       </c>
       <c r="G86">
-        <v>35.44389377455121</v>
+        <v>35.98341101789823</v>
       </c>
       <c r="H86">
-        <v>35.01697483062744</v>
+        <v>35.92221240997314</v>
       </c>
       <c r="I86">
-        <v>34.95306040445963</v>
+        <v>35.97236442565918</v>
       </c>
       <c r="L86">
-        <v>71.69425354265118</v>
+        <v>49.63990450183024</v>
       </c>
       <c r="M86">
-        <v>64.36106998141371</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>48.90766101054008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>38.50691604614258</v>
+        <v>35.90641021728516</v>
       </c>
       <c r="C87">
-        <v>38.70732879638672</v>
+        <v>36.4041862487793</v>
       </c>
       <c r="D87">
-        <v>38.16723251342773</v>
+        <v>35.80688095092773</v>
       </c>
       <c r="E87">
-        <v>38.62393188476562</v>
+        <v>35.98709869384766</v>
       </c>
       <c r="F87">
-        <v>70483264</v>
+        <v>17019200</v>
       </c>
       <c r="G87">
-        <v>35.73298814820706</v>
+        <v>35.98374626116635</v>
       </c>
       <c r="H87">
-        <v>35.20184593200683</v>
+        <v>35.86153774261474</v>
       </c>
       <c r="I87">
-        <v>35.05685297648112</v>
+        <v>35.97694600423177</v>
       </c>
       <c r="L87">
-        <v>72.32735425540781</v>
+        <v>50.70522741123644</v>
       </c>
       <c r="M87">
-        <v>64.9110006207529</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>49.55168498130554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>38.73868560791016</v>
+        <v>36.01031112670898</v>
       </c>
       <c r="C88">
-        <v>39.24837112426758</v>
+        <v>36.07768249511719</v>
       </c>
       <c r="D88">
-        <v>37.64054870605469</v>
+        <v>35.49809646606445</v>
       </c>
       <c r="E88">
-        <v>38.28403091430664</v>
+        <v>35.66671752929688</v>
       </c>
       <c r="F88">
-        <v>94270976</v>
+        <v>273280</v>
       </c>
       <c r="G88">
-        <v>35.96490112694339</v>
+        <v>35.95492546736003</v>
       </c>
       <c r="H88">
-        <v>35.43469696044922</v>
+        <v>35.83851165771485</v>
       </c>
       <c r="I88">
-        <v>35.18616040547689</v>
+        <v>35.98450012207032</v>
       </c>
       <c r="L88">
-        <v>68.6456523234145</v>
+        <v>46.27648867787509</v>
       </c>
       <c r="M88">
-        <v>62.69048195301287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>46.98673658960198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>38.32020568847656</v>
+        <v>35.66671752929688</v>
       </c>
       <c r="C89">
-        <v>39.72669219970703</v>
+        <v>35.90763854980469</v>
       </c>
       <c r="D89">
-        <v>38.32020568847656</v>
+        <v>35.43967819213867</v>
       </c>
       <c r="E89">
-        <v>39.72669219970703</v>
+        <v>35.80521392822266</v>
       </c>
       <c r="F89">
-        <v>46424448</v>
+        <v>4026432</v>
       </c>
       <c r="G89">
-        <v>36.30688213355827</v>
+        <v>35.94131532743845</v>
       </c>
       <c r="H89">
-        <v>35.82113018035889</v>
+        <v>35.86194667816162</v>
       </c>
       <c r="I89">
-        <v>35.3501651763916</v>
+        <v>35.98022791544597</v>
       </c>
       <c r="L89">
-        <v>74.77644736016086</v>
+        <v>48.46550683051626</v>
       </c>
       <c r="M89">
-        <v>67.7354497315731</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>48.23417617982054</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>39.7242431640625</v>
+        <v>35.81282806396484</v>
       </c>
       <c r="C90">
-        <v>41.62960433959961</v>
+        <v>35.82944488525391</v>
       </c>
       <c r="D90">
-        <v>39.18696594238281</v>
+        <v>35.04954147338867</v>
       </c>
       <c r="E90">
-        <v>39.40642547607422</v>
+        <v>35.17412567138672</v>
       </c>
       <c r="F90">
-        <v>254577792</v>
+        <v>1665568</v>
       </c>
       <c r="G90">
-        <v>36.58865880105972</v>
+        <v>35.87157081325193</v>
       </c>
       <c r="H90">
-        <v>36.15454425811767</v>
+        <v>35.8188611984253</v>
       </c>
       <c r="I90">
-        <v>35.49754918416341</v>
+        <v>35.95683670043945</v>
       </c>
       <c r="L90">
-        <v>71.29486066588215</v>
+        <v>40.09137067951227</v>
       </c>
       <c r="M90">
-        <v>65.61430920552252</v>
-      </c>
-      <c r="O90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>43.24110179487511</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>39.44113922119141</v>
+        <v>35.18183898925781</v>
       </c>
       <c r="C91">
-        <v>39.92914962768555</v>
+        <v>35.31789779663086</v>
       </c>
       <c r="D91">
-        <v>38.60101318359375</v>
+        <v>34.86620330810547</v>
       </c>
       <c r="E91">
-        <v>39.92914962768555</v>
+        <v>35.21498870849609</v>
       </c>
       <c r="F91">
-        <v>68258944</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>36.89233978529843</v>
+        <v>35.8118815310014</v>
       </c>
       <c r="H91">
-        <v>36.4654369354248</v>
+        <v>35.77814464569092</v>
       </c>
       <c r="I91">
-        <v>35.67080739339193</v>
+        <v>35.92657101949056</v>
       </c>
       <c r="L91">
-        <v>73.55564260947081</v>
+        <v>40.83603000480191</v>
       </c>
       <c r="M91">
-        <v>67.40824385407478</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>43.64787161264462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>39.93471908569336</v>
+        <v>35.21283340454102</v>
       </c>
       <c r="C92">
-        <v>40.35325622558594</v>
+        <v>35.21283340454102</v>
       </c>
       <c r="D92">
-        <v>39.1504020690918</v>
+        <v>32.92153549194336</v>
       </c>
       <c r="E92">
-        <v>39.45186233520508</v>
+        <v>32.92153549194336</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>74277920</v>
       </c>
       <c r="G92">
-        <v>37.12502365347176</v>
+        <v>35.54912280017794</v>
       </c>
       <c r="H92">
-        <v>36.72589893341065</v>
+        <v>35.60935649871826</v>
       </c>
       <c r="I92">
-        <v>35.83238716125489</v>
+        <v>35.81414082845052</v>
       </c>
       <c r="L92">
-        <v>68.05024678862095</v>
+        <v>22.87940435168851</v>
       </c>
       <c r="M92">
-        <v>64.11891699466369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>30.45546717136203</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>39.40984344482422</v>
+        <v>32.93204116821289</v>
       </c>
       <c r="C93">
-        <v>39.51717758178711</v>
+        <v>33.82453155517578</v>
       </c>
       <c r="D93">
-        <v>38.46576690673828</v>
+        <v>32.92245101928711</v>
       </c>
       <c r="E93">
-        <v>38.92258453369141</v>
+        <v>33.52947235107422</v>
       </c>
       <c r="F93">
-        <v>61952</v>
+        <v>40623392</v>
       </c>
       <c r="G93">
-        <v>37.28843827894627</v>
+        <v>35.36551821389578</v>
       </c>
       <c r="H93">
-        <v>36.86095523834229</v>
+        <v>35.52230701446533</v>
       </c>
       <c r="I93">
-        <v>35.97927029927572</v>
+        <v>35.71676394144694</v>
       </c>
       <c r="L93">
-        <v>62.23872864584174</v>
+        <v>31.81987023823788</v>
       </c>
       <c r="M93">
-        <v>60.5881412152283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>35.97923034160596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>38.91782760620117</v>
+        <v>33.53049850463867</v>
       </c>
       <c r="C94">
-        <v>39.29416275024414</v>
+        <v>33.63565444946289</v>
       </c>
       <c r="D94">
-        <v>38.56183624267578</v>
+        <v>32.69871520996094</v>
       </c>
       <c r="E94">
-        <v>38.66364288330078</v>
+        <v>33.08870697021484</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>13343872</v>
       </c>
       <c r="G94">
-        <v>37.41345687934214</v>
+        <v>35.15853537356115</v>
       </c>
       <c r="H94">
-        <v>36.9899938583374</v>
+        <v>35.36041622161865</v>
       </c>
       <c r="I94">
-        <v>36.09898834228515</v>
+        <v>35.61962483723958</v>
       </c>
       <c r="L94">
-        <v>59.44462052868992</v>
+        <v>29.07101717223581</v>
       </c>
       <c r="M94">
-        <v>58.87988186732608</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>33.87822849966861</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>38.66653823852539</v>
+        <v>33.08774948120117</v>
       </c>
       <c r="C95">
-        <v>38.96629333496094</v>
+        <v>33.68983840942383</v>
       </c>
       <c r="D95">
-        <v>38.26197814941406</v>
+        <v>33.02406692504883</v>
       </c>
       <c r="E95">
-        <v>38.62263488769531</v>
+        <v>33.39221572875977</v>
       </c>
       <c r="F95">
-        <v>368000</v>
+        <v>2347584</v>
       </c>
       <c r="G95">
-        <v>37.52338215282879</v>
+        <v>34.99796086039738</v>
       </c>
       <c r="H95">
-        <v>37.127565574646</v>
+        <v>35.24679317474365</v>
       </c>
       <c r="I95">
-        <v>36.22332916259766</v>
+        <v>35.52214546203614</v>
       </c>
       <c r="L95">
-        <v>58.97293302004584</v>
+        <v>33.5199969055703</v>
       </c>
       <c r="M95">
-        <v>58.59810775971941</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>36.6226879338248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>38.61752319335938</v>
+        <v>33.39570236206055</v>
       </c>
       <c r="C96">
-        <v>38.90864562988281</v>
+        <v>33.68729019165039</v>
       </c>
       <c r="D96">
-        <v>37.25000762939453</v>
+        <v>33.29645919799805</v>
       </c>
       <c r="E96">
-        <v>37.34642791748047</v>
+        <v>33.63893127441406</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2719872</v>
       </c>
       <c r="G96">
-        <v>37.50729540416076</v>
+        <v>34.87441271621708</v>
       </c>
       <c r="H96">
-        <v>37.14352626800537</v>
+        <v>35.11972274780273</v>
       </c>
       <c r="I96">
-        <v>36.31056264241536</v>
+        <v>35.42877515157064</v>
       </c>
       <c r="L96">
-        <v>46.1515886810811</v>
+        <v>37.12646727384251</v>
       </c>
       <c r="M96">
-        <v>50.49872666829741</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>38.84474934043918</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>37.32616806030273</v>
+        <v>33.64168930053711</v>
       </c>
       <c r="C97">
-        <v>37.6704216003418</v>
+        <v>33.64168930053711</v>
       </c>
       <c r="D97">
-        <v>36.14856338500977</v>
+        <v>32.54961395263672</v>
       </c>
       <c r="E97">
-        <v>36.49839019775391</v>
+        <v>32.63990783691406</v>
       </c>
       <c r="F97">
-        <v>27158784</v>
+        <v>27088384</v>
       </c>
       <c r="G97">
-        <v>37.41557674903287</v>
+        <v>34.67127590900771</v>
       </c>
       <c r="H97">
-        <v>37.14736614227295</v>
+        <v>34.96144313812256</v>
       </c>
       <c r="I97">
-        <v>36.3629586537679</v>
+        <v>35.27675234476725</v>
       </c>
       <c r="L97">
-        <v>39.6993450472962</v>
+        <v>29.76955789677493</v>
       </c>
       <c r="M97">
-        <v>45.95340446731399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>33.69329793261923</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>36.5136833190918</v>
+        <v>32.63876724243164</v>
       </c>
       <c r="C98">
-        <v>37.02303695678711</v>
+        <v>32.81561279296875</v>
       </c>
       <c r="D98">
-        <v>35.04478073120117</v>
+        <v>31.31074905395508</v>
       </c>
       <c r="E98">
-        <v>35.84965133666992</v>
+        <v>32.7603874206543</v>
       </c>
       <c r="F98">
-        <v>75402816</v>
+        <v>29706688</v>
       </c>
       <c r="G98">
-        <v>37.2732198933635</v>
+        <v>34.49755877370286</v>
       </c>
       <c r="H98">
-        <v>37.15711879730225</v>
+        <v>34.81057910919189</v>
       </c>
       <c r="I98">
-        <v>36.43704668680827</v>
+        <v>35.16452395121257</v>
       </c>
       <c r="L98">
-        <v>35.4357758566682</v>
+        <v>31.60823676311401</v>
       </c>
       <c r="M98">
-        <v>42.78109483995874</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>34.81599042897768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>35.86818695068359</v>
+        <v>32.75239181518555</v>
       </c>
       <c r="C99">
-        <v>36.06823348999024</v>
+        <v>33.06303024291992</v>
       </c>
       <c r="D99">
-        <v>34.86716842651367</v>
+        <v>32.45689392089844</v>
       </c>
       <c r="E99">
-        <v>35.44009399414062</v>
+        <v>32.63910293579102</v>
       </c>
       <c r="F99">
-        <v>17647680</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>37.10657208434324</v>
+        <v>34.3286082429836</v>
       </c>
       <c r="H99">
-        <v>37.1771297454834</v>
+        <v>34.65731029510498</v>
       </c>
       <c r="I99">
-        <v>36.5517822265625</v>
+        <v>35.07461026509603</v>
       </c>
       <c r="L99">
-        <v>32.92443517780136</v>
+        <v>30.69803968452915</v>
       </c>
       <c r="M99">
-        <v>40.86322131939554</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>34.18842507384102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>35.44255447387695</v>
+        <v>32.64551544189453</v>
       </c>
       <c r="C100">
-        <v>36.03591156005859</v>
+        <v>32.92415237426758</v>
       </c>
       <c r="D100">
-        <v>35.41785049438477</v>
+        <v>32.45866012573242</v>
       </c>
       <c r="E100">
-        <v>35.93338012695312</v>
+        <v>32.73041152954102</v>
       </c>
       <c r="F100">
-        <v>9038592</v>
+        <v>2123968</v>
       </c>
       <c r="G100">
-        <v>36.99991827003505</v>
+        <v>34.18331763267064</v>
       </c>
       <c r="H100">
-        <v>37.23912563323974</v>
+        <v>34.51824550628662</v>
       </c>
       <c r="I100">
-        <v>36.65829010009766</v>
+        <v>34.96442947387695</v>
       </c>
       <c r="L100">
-        <v>38.80126165098254</v>
+        <v>32.34800458994481</v>
       </c>
       <c r="M100">
-        <v>44.11295724715053</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>35.13634728044956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>35.93243408203125</v>
+        <v>32.73027420043945</v>
       </c>
       <c r="C101">
-        <v>36.02489471435547</v>
+        <v>32.89426803588867</v>
       </c>
       <c r="D101">
-        <v>35.63383865356445</v>
+        <v>32.58767318725586</v>
       </c>
       <c r="E101">
-        <v>35.87586212158203</v>
+        <v>32.58767318725586</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1088992</v>
       </c>
       <c r="G101">
-        <v>36.89773134744841</v>
+        <v>34.03825904672384</v>
       </c>
       <c r="H101">
-        <v>37.31079292297363</v>
+        <v>34.36871814727783</v>
       </c>
       <c r="I101">
-        <v>36.73044230143229</v>
+        <v>34.84970792134603</v>
       </c>
       <c r="L101">
-        <v>38.36038317354164</v>
+        <v>31.04800158481504</v>
       </c>
       <c r="M101">
-        <v>43.81064229881468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>34.30451573836347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>35.88335800170898</v>
+        <v>32.58604431152344</v>
       </c>
       <c r="C102">
-        <v>36.25338363647461</v>
+        <v>32.69046020507812</v>
       </c>
       <c r="D102">
-        <v>35.69211578369141</v>
+        <v>32.04904556274414</v>
       </c>
       <c r="E102">
-        <v>36.12295913696289</v>
+        <v>32.36994171142578</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>7717568</v>
       </c>
       <c r="G102">
-        <v>36.82729751013154</v>
+        <v>33.88659383442401</v>
       </c>
       <c r="H102">
-        <v>37.40836944580078</v>
+        <v>34.17352333068848</v>
       </c>
       <c r="I102">
-        <v>36.79312019348144</v>
+        <v>34.71879603068034</v>
       </c>
       <c r="L102">
-        <v>41.5691030823694</v>
+        <v>29.04491354286088</v>
       </c>
       <c r="M102">
-        <v>45.53743385126852</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>33.02033685646227</v>
+      </c>
+      <c r="N102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>36.12295913696289</v>
+        <v>32.37578964233398</v>
       </c>
       <c r="C103">
-        <v>36.39951324462891</v>
+        <v>32.6519889831543</v>
       </c>
       <c r="D103">
-        <v>35.90626907348633</v>
+        <v>32.32102966308594</v>
       </c>
       <c r="E103">
-        <v>36.29444122314453</v>
+        <v>32.49570083618164</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>3185408</v>
       </c>
       <c r="G103">
-        <v>36.77885602949636</v>
+        <v>33.76014901640198</v>
       </c>
       <c r="H103">
-        <v>37.47448539733887</v>
+        <v>34.02787284851074</v>
       </c>
       <c r="I103">
-        <v>36.79555295308431</v>
+        <v>34.62630399068197</v>
       </c>
       <c r="L103">
-        <v>43.85110938511551</v>
+        <v>31.89977946786222</v>
       </c>
       <c r="M103">
-        <v>46.7602407290038</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>34.54447219644207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>36.28928375244141</v>
+        <v>32.4951286315918</v>
       </c>
       <c r="C104">
-        <v>36.58984375</v>
+        <v>32.57333374023438</v>
       </c>
       <c r="D104">
-        <v>36.2119140625</v>
+        <v>32.23855972290039</v>
       </c>
       <c r="E104">
-        <v>36.45077896118164</v>
+        <v>32.37781143188477</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>36.74903084146775</v>
+        <v>33.63448196326404</v>
       </c>
       <c r="H104">
-        <v>37.56540603637696</v>
+        <v>33.83548755645752</v>
       </c>
       <c r="I104">
-        <v>36.80781656901042</v>
+        <v>34.49468027750651</v>
       </c>
       <c r="L104">
-        <v>46.0136096318691</v>
+        <v>30.60131502143659</v>
       </c>
       <c r="M104">
-        <v>47.90854248933014</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>33.76873377738456</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>36.45020294189453</v>
+        <v>32.37778854370117</v>
       </c>
       <c r="C105">
-        <v>36.52668380737305</v>
+        <v>32.92308044433594</v>
       </c>
       <c r="D105">
-        <v>35.89763259887695</v>
+        <v>32.35700225830078</v>
       </c>
       <c r="E105">
-        <v>36.00288009643555</v>
+        <v>32.78948974609375</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1182592</v>
       </c>
       <c r="G105">
-        <v>36.68119895555573</v>
+        <v>33.55766448897584</v>
       </c>
       <c r="H105">
-        <v>37.59551429748535</v>
+        <v>33.68584308624268</v>
       </c>
       <c r="I105">
-        <v>36.81220588684082</v>
+        <v>34.39884071350097</v>
       </c>
       <c r="L105">
-        <v>40.93256920300437</v>
+        <v>40.16895281662443</v>
       </c>
       <c r="M105">
-        <v>44.91934774589352</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>38.92645395471936</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>36.016845703125</v>
+        <v>32.8138313293457</v>
       </c>
       <c r="C106">
-        <v>37.12538909912109</v>
+        <v>33.08981323242188</v>
       </c>
       <c r="D106">
-        <v>35.87091827392578</v>
+        <v>32.47462844848633</v>
       </c>
       <c r="E106">
-        <v>36.31659698486328</v>
+        <v>33.02132797241211</v>
       </c>
       <c r="F106">
-        <v>34160000</v>
+        <v>552320</v>
       </c>
       <c r="G106">
-        <v>36.64805332185641</v>
+        <v>33.50890662383368</v>
       </c>
       <c r="H106">
-        <v>37.48812084197998</v>
+        <v>33.54153804779052</v>
       </c>
       <c r="I106">
-        <v>36.7885186513265</v>
+        <v>34.29354031880697</v>
       </c>
       <c r="L106">
-        <v>45.66071365884414</v>
+        <v>44.97505173366808</v>
       </c>
       <c r="M106">
-        <v>47.3951157235953</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>41.68079704740697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>36.34055328369141</v>
+        <v>33.01319122314453</v>
       </c>
       <c r="C107">
-        <v>36.92449569702149</v>
+        <v>33.16115951538086</v>
       </c>
       <c r="D107">
-        <v>36.31714248657227</v>
+        <v>32.78854370117188</v>
       </c>
       <c r="E107">
-        <v>36.44004058837891</v>
+        <v>33.04751205444336</v>
       </c>
       <c r="F107">
-        <v>9182432</v>
+        <v>940928</v>
       </c>
       <c r="G107">
-        <v>36.62914307335845</v>
+        <v>33.46696166298002</v>
       </c>
       <c r="H107">
-        <v>37.37892627716064</v>
+        <v>33.39455871582031</v>
       </c>
       <c r="I107">
-        <v>36.78913358052571</v>
+        <v>34.20160738627116</v>
       </c>
       <c r="L107">
-        <v>47.5203035827032</v>
+        <v>45.53098219957714</v>
       </c>
       <c r="M107">
-        <v>48.37835247564009</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>41.99895130311001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>36.43968963623047</v>
+        <v>33.05091094970703</v>
       </c>
       <c r="C108">
-        <v>37.2036018371582</v>
+        <v>33.40129089355469</v>
       </c>
       <c r="D108">
-        <v>36.22281646728516</v>
+        <v>32.9694938659668</v>
       </c>
       <c r="E108">
-        <v>37.20059204101562</v>
+        <v>33.27138519287109</v>
       </c>
       <c r="F108">
-        <v>18291040</v>
+        <v>4005248</v>
       </c>
       <c r="G108">
-        <v>36.6810929795091</v>
+        <v>33.44918198387921</v>
       </c>
       <c r="H108">
-        <v>37.3247543334961</v>
+        <v>33.27479209899902</v>
       </c>
       <c r="I108">
-        <v>36.84066670735677</v>
+        <v>34.11806462605794</v>
       </c>
       <c r="L108">
-        <v>57.58190194580356</v>
+        <v>50.35545157161882</v>
       </c>
       <c r="M108">
-        <v>54.07390949284561</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>44.77307813558576</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>37.20394134521485</v>
+        <v>33.27356338500977</v>
       </c>
       <c r="C109">
-        <v>37.78963851928711</v>
+        <v>33.43380355834961</v>
       </c>
       <c r="D109">
-        <v>36.12723922729492</v>
+        <v>32.91732788085938</v>
       </c>
       <c r="E109">
-        <v>36.12723922729492</v>
+        <v>32.97970199584961</v>
       </c>
       <c r="F109">
-        <v>57305184</v>
+        <v>4821056</v>
       </c>
       <c r="G109">
-        <v>36.63074263839872</v>
+        <v>33.40650198496743</v>
       </c>
       <c r="H109">
-        <v>37.14478168487549</v>
+        <v>33.13351650238037</v>
       </c>
       <c r="I109">
-        <v>36.87691218058269</v>
+        <v>34.02723871866862</v>
       </c>
       <c r="L109">
-        <v>44.14441985931727</v>
+        <v>44.56920609751916</v>
       </c>
       <c r="M109">
-        <v>46.30851107775453</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>41.95733842882766</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>36.13131713867188</v>
+        <v>32.9780387878418</v>
       </c>
       <c r="C110">
-        <v>36.51833343505859</v>
+        <v>33.22488784790039</v>
       </c>
       <c r="D110">
-        <v>35.33651351928711</v>
+        <v>32.78007888793945</v>
       </c>
       <c r="E110">
-        <v>35.33651351928711</v>
+        <v>33.04730224609375</v>
       </c>
       <c r="F110">
-        <v>32163648</v>
+        <v>6148384</v>
       </c>
       <c r="G110">
-        <v>36.51308544575221</v>
+        <v>33.37384746325164</v>
       </c>
       <c r="H110">
-        <v>36.94128608703613</v>
+        <v>33.02717533111572</v>
       </c>
       <c r="I110">
-        <v>36.89834721883138</v>
+        <v>33.94509188334147</v>
       </c>
       <c r="L110">
-        <v>36.9903080564189</v>
+        <v>46.18159786909842</v>
       </c>
       <c r="M110">
-        <v>41.57213337487267</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>42.85431392451102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>35.33125686645508</v>
+        <v>33.05786895751953</v>
       </c>
       <c r="C111">
-        <v>36.43513107299805</v>
+        <v>33.11076736450195</v>
       </c>
       <c r="D111">
-        <v>35.29653930664062</v>
+        <v>32.47394561767578</v>
       </c>
       <c r="E111">
-        <v>36.03583526611328</v>
+        <v>32.47394561767578</v>
       </c>
       <c r="F111">
-        <v>10758848</v>
+        <v>7644000</v>
       </c>
       <c r="G111">
-        <v>36.46969906578504</v>
+        <v>33.29203820456292</v>
       </c>
       <c r="H111">
-        <v>36.74662036895752</v>
+        <v>32.8901231765747</v>
       </c>
       <c r="I111">
-        <v>36.95145785013835</v>
+        <v>33.84161605834961</v>
       </c>
       <c r="L111">
-        <v>45.73949052042523</v>
+        <v>36.14843195427428</v>
       </c>
       <c r="M111">
-        <v>46.75859181545179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>37.5534749990378</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>36.03462982177734</v>
+        <v>32.48581314086914</v>
       </c>
       <c r="C112">
-        <v>36.37201690673828</v>
+        <v>32.65677642822266</v>
       </c>
       <c r="D112">
-        <v>35.79254150390625</v>
+        <v>31.99560928344727</v>
       </c>
       <c r="E112">
-        <v>36.0293197631836</v>
+        <v>32.19352722167969</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>18053248</v>
       </c>
       <c r="G112">
-        <v>36.42966458373036</v>
+        <v>33.19217356975535</v>
       </c>
       <c r="H112">
-        <v>36.57549324035644</v>
+        <v>32.85372276306153</v>
       </c>
       <c r="I112">
-        <v>37.01338755289714</v>
+        <v>33.70560569763184</v>
       </c>
       <c r="L112">
-        <v>45.67301782966156</v>
+        <v>32.28872668166438</v>
       </c>
       <c r="M112">
-        <v>46.7169833921747</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>35.25650329732564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>36.02392959594727</v>
+        <v>32.19780349731445</v>
       </c>
       <c r="C113">
-        <v>36.47830963134766</v>
+        <v>32.27101516723633</v>
       </c>
       <c r="D113">
-        <v>35.9140625</v>
+        <v>31.73797416687012</v>
       </c>
       <c r="E113">
-        <v>36.29729843139648</v>
+        <v>31.92505264282227</v>
       </c>
       <c r="F113">
-        <v>2826560</v>
+        <v>49295040</v>
       </c>
       <c r="G113">
-        <v>36.41763129715455</v>
+        <v>33.07698075821598</v>
       </c>
       <c r="H113">
-        <v>36.4442289352417</v>
+        <v>32.77350177764892</v>
       </c>
       <c r="I113">
-        <v>37.05756009419759</v>
+        <v>33.5894837697347</v>
       </c>
       <c r="L113">
-        <v>49.09602962892938</v>
+        <v>28.95838901497848</v>
       </c>
       <c r="M113">
-        <v>48.73747384500563</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>33.16496233264052</v>
+      </c>
+      <c r="N113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>36.29895782470703</v>
+        <v>31.92742156982422</v>
       </c>
       <c r="C114">
-        <v>36.44731903076172</v>
+        <v>31.93666839599609</v>
       </c>
       <c r="D114">
-        <v>35.22887802124023</v>
+        <v>30.78210067749023</v>
       </c>
       <c r="E114">
-        <v>35.27046203613281</v>
+        <v>31.22531318664551</v>
       </c>
       <c r="F114">
-        <v>9049792</v>
+        <v>43709312</v>
       </c>
       <c r="G114">
-        <v>36.31334318251621</v>
+        <v>32.90864734261866</v>
       </c>
       <c r="H114">
-        <v>36.2745698928833</v>
+        <v>32.68033208847046</v>
       </c>
       <c r="I114">
-        <v>37.07882995605469</v>
+        <v>33.42281030019124</v>
       </c>
       <c r="L114">
-        <v>38.60933373588173</v>
+        <v>22.23414458570198</v>
       </c>
       <c r="M114">
-        <v>42.14301301540805</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>28.43088457746925</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>35.27485275268555</v>
+        <v>31.21836280822754</v>
       </c>
       <c r="C115">
-        <v>36.73755264282227</v>
+        <v>31.51672744750977</v>
       </c>
       <c r="D115">
-        <v>35.24980545043945</v>
+        <v>30.22291374206543</v>
       </c>
       <c r="E115">
-        <v>36.32652282714844</v>
+        <v>30.54537963867188</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>39546848</v>
       </c>
       <c r="G115">
-        <v>36.31454133202823</v>
+        <v>32.69380482407805</v>
       </c>
       <c r="H115">
-        <v>36.15976428985596</v>
+        <v>32.53799028396607</v>
       </c>
       <c r="I115">
-        <v>37.10969022115071</v>
+        <v>33.24824364980062</v>
       </c>
       <c r="L115">
-        <v>50.77460278914165</v>
+        <v>17.73290929100899</v>
       </c>
       <c r="M115">
-        <v>49.6834948025854</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>24.73600544491935</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>36.32699966430664</v>
+        <v>30.55684280395508</v>
       </c>
       <c r="C116">
-        <v>36.4677963256836</v>
+        <v>30.7064266204834</v>
       </c>
       <c r="D116">
-        <v>35.44668579101562</v>
+        <v>29.52483558654785</v>
       </c>
       <c r="E116">
-        <v>35.66467666625977</v>
+        <v>29.81435775756836</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>93313408</v>
       </c>
       <c r="G116">
-        <v>36.25546272604927</v>
+        <v>32.43203690894081</v>
       </c>
       <c r="H116">
-        <v>36.07567672729492</v>
+        <v>32.34676160812378</v>
       </c>
       <c r="I116">
-        <v>37.01636390686035</v>
+        <v>33.04514128367106</v>
       </c>
       <c r="L116">
-        <v>44.55030061404871</v>
+        <v>14.2448387669589</v>
       </c>
       <c r="M116">
-        <v>45.66656326420524</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>21.50072742248196</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>35.65319442749023</v>
+        <v>29.8169994354248</v>
       </c>
       <c r="C117">
-        <v>36.18033981323242</v>
+        <v>30.5449104309082</v>
       </c>
       <c r="D117">
-        <v>35.61992263793945</v>
+        <v>29.42544746398925</v>
       </c>
       <c r="E117">
-        <v>36.18033981323242</v>
+        <v>29.4608325958252</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>60318592</v>
       </c>
       <c r="G117">
-        <v>36.24863337033864</v>
+        <v>32.16192742593029</v>
       </c>
       <c r="H117">
-        <v>36.05977420806884</v>
+        <v>32.18780784606933</v>
       </c>
       <c r="I117">
-        <v>36.93491083780925</v>
+        <v>32.82759908040364</v>
       </c>
       <c r="L117">
-        <v>49.93028277513609</v>
+        <v>12.8677831710355</v>
       </c>
       <c r="M117">
-        <v>49.1182997418959</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>20.12955860521307</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>36.1884651184082</v>
+        <v>29.48297309875488</v>
       </c>
       <c r="C118">
-        <v>36.2193603515625</v>
+        <v>30.16740417480469</v>
       </c>
       <c r="D118">
-        <v>35.50940704345703</v>
+        <v>29.35498237609864</v>
       </c>
       <c r="E118">
-        <v>35.80550003051758</v>
+        <v>29.94275283813477</v>
       </c>
       <c r="F118">
-        <v>2908608</v>
+        <v>16752768</v>
       </c>
       <c r="G118">
-        <v>36.208348521264</v>
+        <v>31.96018428158525</v>
       </c>
       <c r="H118">
-        <v>36.05756664276123</v>
+        <v>32.04692611694336</v>
       </c>
       <c r="I118">
-        <v>36.85229314168294</v>
+        <v>32.63680025736491</v>
       </c>
       <c r="L118">
-        <v>46.25984459099275</v>
+        <v>24.11753017474648</v>
       </c>
       <c r="M118">
-        <v>46.79128214348511</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>26.96704060686658</v>
+      </c>
+      <c r="N118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>35.80560302734375</v>
+        <v>29.93622016906738</v>
       </c>
       <c r="C119">
-        <v>36.49811172485352</v>
+        <v>30.17049026489257</v>
       </c>
       <c r="D119">
-        <v>35.63246154785156</v>
+        <v>29.21403312683105</v>
       </c>
       <c r="E119">
-        <v>35.77766799926758</v>
+        <v>29.23504638671875</v>
       </c>
       <c r="F119">
-        <v>14774720</v>
+        <v>8408576</v>
       </c>
       <c r="G119">
-        <v>36.16919574653705</v>
+        <v>31.71244447296102</v>
       </c>
       <c r="H119">
-        <v>36.07444534301758</v>
+        <v>31.87672328948975</v>
       </c>
       <c r="I119">
-        <v>36.7206590016683</v>
+        <v>32.41779467264811</v>
       </c>
       <c r="L119">
-        <v>45.97751840324954</v>
+        <v>19.87760206664241</v>
       </c>
       <c r="M119">
-        <v>46.61469337258709</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>23.75143592905717</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>35.78007507324219</v>
+        <v>29.2448844909668</v>
       </c>
       <c r="C120">
-        <v>36.2052116394043</v>
+        <v>29.41889381408692</v>
       </c>
       <c r="D120">
-        <v>34.85787582397461</v>
+        <v>27.55914115905762</v>
       </c>
       <c r="E120">
-        <v>35.7044792175293</v>
+        <v>27.81999015808105</v>
       </c>
       <c r="F120">
-        <v>28514208</v>
+        <v>99797632</v>
       </c>
       <c r="G120">
-        <v>36.12694878935452</v>
+        <v>31.35858498979011</v>
       </c>
       <c r="H120">
-        <v>36.06300029754639</v>
+        <v>31.63120222091675</v>
       </c>
       <c r="I120">
-        <v>36.59726079305013</v>
+        <v>32.17265682220459</v>
       </c>
       <c r="L120">
-        <v>45.16211336917556</v>
+        <v>14.24451564715602</v>
       </c>
       <c r="M120">
-        <v>46.12175990325849</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>18.89887905288878</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>35.69953536987305</v>
+        <v>27.8364315032959</v>
       </c>
       <c r="C121">
-        <v>35.83800888061523</v>
+        <v>29.2433967590332</v>
       </c>
       <c r="D121">
-        <v>35.39751052856445</v>
+        <v>27.37829208374023</v>
       </c>
       <c r="E121">
-        <v>35.5117073059082</v>
+        <v>29.07973861694336</v>
       </c>
       <c r="F121">
-        <v>5828960</v>
+        <v>81204480</v>
       </c>
       <c r="G121">
-        <v>36.07101774540485</v>
+        <v>31.15141713771313</v>
       </c>
       <c r="H121">
-        <v>36.04479255676269</v>
+        <v>31.45580549240112</v>
       </c>
       <c r="I121">
-        <v>36.45001271565755</v>
+        <v>31.9681484858195</v>
       </c>
       <c r="L121">
-        <v>42.90729898669202</v>
+        <v>33.20294648075381</v>
       </c>
       <c r="M121">
-        <v>44.77862345915307</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>32.18252269175108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>35.50873565673828</v>
+        <v>29.08187294006348</v>
       </c>
       <c r="C122">
-        <v>36.19022369384766</v>
+        <v>29.35489463806152</v>
       </c>
       <c r="D122">
-        <v>35.50621032714844</v>
+        <v>28.7745418548584</v>
       </c>
       <c r="E122">
-        <v>35.57822036743164</v>
+        <v>28.92455863952637</v>
       </c>
       <c r="F122">
-        <v>15409056</v>
+        <v>15988736</v>
       </c>
       <c r="G122">
-        <v>36.02621798377093</v>
+        <v>30.94897545605979</v>
       </c>
       <c r="H122">
-        <v>36.01755561828613</v>
+        <v>31.28353633880615</v>
       </c>
       <c r="I122">
-        <v>36.32089131673177</v>
+        <v>31.83491592407227</v>
       </c>
       <c r="L122">
-        <v>43.99271632977936</v>
+        <v>32.21594957281522</v>
       </c>
       <c r="M122">
-        <v>45.3697700089194</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>31.49812028443721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>35.58462142944336</v>
+        <v>28.91089248657227</v>
       </c>
       <c r="C123">
-        <v>36.385986328125</v>
+        <v>30.59928703308105</v>
       </c>
       <c r="D123">
-        <v>35.52153396606445</v>
+        <v>28.81321334838867</v>
       </c>
       <c r="E123">
-        <v>36.27383804321289</v>
+        <v>30.56610298156738</v>
       </c>
       <c r="F123">
-        <v>30957088</v>
+        <v>47252416</v>
       </c>
       <c r="G123">
-        <v>36.04872889826564</v>
+        <v>30.91416886746957</v>
       </c>
       <c r="H123">
-        <v>36.01652545928955</v>
+        <v>31.18705644607544</v>
       </c>
       <c r="I123">
-        <v>36.23259976704915</v>
+        <v>31.73613694508871</v>
       </c>
       <c r="L123">
-        <v>54.23054969447935</v>
+        <v>49.92904607898832</v>
       </c>
       <c r="M123">
-        <v>51.24778436620284</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>44.85733210770723</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>36.26970672607422</v>
+        <v>30.59920692443848</v>
       </c>
       <c r="C124">
-        <v>36.26970672607422</v>
+        <v>30.62552833557129</v>
       </c>
       <c r="D124">
-        <v>35.40871047973633</v>
+        <v>29.55598640441895</v>
       </c>
       <c r="E124">
-        <v>35.40871047973633</v>
+        <v>29.59778785705566</v>
       </c>
       <c r="F124">
-        <v>5851936</v>
+        <v>18519104</v>
       </c>
       <c r="G124">
-        <v>35.99054540567207</v>
+        <v>30.79449786652285</v>
       </c>
       <c r="H124">
-        <v>35.96442203521728</v>
+        <v>31.04805526733399</v>
       </c>
       <c r="I124">
-        <v>36.12410202026367</v>
+        <v>31.61977297465006</v>
       </c>
       <c r="L124">
-        <v>43.18558329779211</v>
+        <v>42.55024711417511</v>
       </c>
       <c r="M124">
-        <v>44.79273694828692</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>39.91265694013552</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>35.40900802612305</v>
+        <v>29.59634971618652</v>
       </c>
       <c r="C125">
-        <v>36.43163681030273</v>
+        <v>30.68215560913086</v>
       </c>
       <c r="D125">
-        <v>35.36563873291016</v>
+        <v>29.51006889343262</v>
       </c>
       <c r="E125">
-        <v>36.22551727294922</v>
+        <v>30.44392967224121</v>
       </c>
       <c r="F125">
-        <v>23898592</v>
+        <v>26131584</v>
       </c>
       <c r="G125">
-        <v>36.01190648451545</v>
+        <v>30.76262803067907</v>
       </c>
       <c r="H125">
-        <v>35.97555389404297</v>
+        <v>30.93077726364136</v>
       </c>
       <c r="I125">
-        <v>36.04419809977214</v>
+        <v>31.52149677276611</v>
       </c>
       <c r="L125">
-        <v>53.29020517130984</v>
+        <v>49.83789128529818</v>
       </c>
       <c r="M125">
-        <v>51.06043828770893</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>45.55987509527709</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>36.23518371582031</v>
+        <v>30.44849967956543</v>
       </c>
       <c r="C126">
-        <v>36.43471527099609</v>
+        <v>31.69362258911133</v>
       </c>
       <c r="D126">
-        <v>35.78070449829102</v>
+        <v>30.44849967956543</v>
       </c>
       <c r="E126">
-        <v>35.78237915039062</v>
+        <v>31.18017768859864</v>
       </c>
       <c r="F126">
-        <v>9896736</v>
+        <v>6004288</v>
       </c>
       <c r="G126">
-        <v>35.99104036323138</v>
+        <v>30.80058709048994</v>
       </c>
       <c r="H126">
-        <v>35.94884300231934</v>
+        <v>30.83871974945068</v>
       </c>
       <c r="I126">
-        <v>35.99206314086914</v>
+        <v>31.4395383199056</v>
       </c>
       <c r="L126">
-        <v>48.07194744164805</v>
+        <v>55.37871768692347</v>
       </c>
       <c r="M126">
-        <v>47.88422954759385</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>49.96623915106119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>35.7837028503418</v>
+        <v>31.1900577545166</v>
       </c>
       <c r="C127">
-        <v>36.04213714599609</v>
+        <v>31.85946655273437</v>
       </c>
       <c r="D127">
-        <v>35.33757400512695</v>
+        <v>30.63732719421387</v>
       </c>
       <c r="E127">
-        <v>35.90742874145508</v>
+        <v>30.93133163452148</v>
       </c>
       <c r="F127">
-        <v>10825600</v>
+        <v>15383168</v>
       </c>
       <c r="G127">
-        <v>35.98343930670625</v>
+        <v>30.81247295812917</v>
       </c>
       <c r="H127">
-        <v>35.92221240997314</v>
+        <v>30.73291072845459</v>
       </c>
       <c r="I127">
-        <v>35.97236442565918</v>
+        <v>31.38258577982585</v>
       </c>
       <c r="L127">
-        <v>49.6375470092354</v>
+        <v>53.1465196027156</v>
       </c>
       <c r="M127">
-        <v>48.85114447417159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>48.53629463833379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>35.90641021728516</v>
+        <v>30.93457984924316</v>
       </c>
       <c r="C128">
-        <v>36.4041862487793</v>
+        <v>31.57457160949707</v>
       </c>
       <c r="D128">
-        <v>35.80688095092773</v>
+        <v>30.52666282653809</v>
       </c>
       <c r="E128">
-        <v>35.98709869384766</v>
+        <v>30.6756763458252</v>
       </c>
       <c r="F128">
-        <v>17019200</v>
+        <v>4659200</v>
       </c>
       <c r="G128">
-        <v>35.98377197826456</v>
+        <v>30.80003690246517</v>
       </c>
       <c r="H128">
-        <v>35.86153774261474</v>
+        <v>30.60312528610229</v>
       </c>
       <c r="I128">
-        <v>35.97694600423177</v>
+        <v>31.31309541066488</v>
       </c>
       <c r="L128">
-        <v>50.70283109722411</v>
+        <v>50.78078620250086</v>
       </c>
       <c r="M128">
-        <v>49.49406674171571</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>47.04665912282171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>36.01031112670898</v>
+        <v>30.65687561035156</v>
       </c>
       <c r="C129">
-        <v>36.07768249511719</v>
+        <v>31.22602844238281</v>
       </c>
       <c r="D129">
-        <v>35.49809646606445</v>
+        <v>30.07490921020508</v>
       </c>
       <c r="E129">
-        <v>35.66671752929688</v>
+        <v>31.2225112915039</v>
       </c>
       <c r="F129">
-        <v>273280</v>
+        <v>10710400</v>
       </c>
       <c r="G129">
-        <v>35.95494884654023</v>
+        <v>30.83844366510505</v>
       </c>
       <c r="H129">
-        <v>35.83851165771485</v>
+        <v>30.51526575088501</v>
       </c>
       <c r="I129">
-        <v>35.98450012207032</v>
+        <v>31.26587568918864</v>
       </c>
       <c r="L129">
-        <v>46.27463814032651</v>
+        <v>55.54276465226473</v>
       </c>
       <c r="M129">
-        <v>46.93893732665932</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>50.54310198747</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>35.66671752929688</v>
+        <v>31.21673202514648</v>
       </c>
       <c r="C130">
-        <v>35.90763854980469</v>
+        <v>31.32682228088379</v>
       </c>
       <c r="D130">
-        <v>35.43967819213867</v>
+        <v>30.58968544006348</v>
       </c>
       <c r="E130">
-        <v>35.80521392822266</v>
+        <v>30.79322624206543</v>
       </c>
       <c r="F130">
-        <v>4026432</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>35.94133658123863</v>
+        <v>30.83433299028327</v>
       </c>
       <c r="H130">
-        <v>35.86194667816162</v>
+        <v>30.40256195068359</v>
       </c>
       <c r="I130">
-        <v>35.98022791544597</v>
+        <v>31.20130284627279</v>
       </c>
       <c r="L130">
-        <v>48.46357214625576</v>
+        <v>51.17042581912779</v>
       </c>
       <c r="M130">
-        <v>48.18424812927316</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>47.87084424671776</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>35.81282806396484</v>
+        <v>30.79232215881348</v>
       </c>
       <c r="C131">
-        <v>35.82944488525391</v>
+        <v>30.79232215881348</v>
       </c>
       <c r="D131">
-        <v>35.04954147338867</v>
+        <v>30.2512092590332</v>
       </c>
       <c r="E131">
-        <v>35.17412567138672</v>
+        <v>30.56257057189941</v>
       </c>
       <c r="F131">
-        <v>1665568</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>35.87159013488846</v>
+        <v>30.80962731588473</v>
       </c>
       <c r="H131">
-        <v>35.8188611984253</v>
+        <v>30.30699319839477</v>
       </c>
       <c r="I131">
-        <v>35.95683670043945</v>
+        <v>31.13379942576091</v>
       </c>
       <c r="L131">
-        <v>40.0902751456306</v>
+        <v>48.84615058325266</v>
       </c>
       <c r="M131">
-        <v>43.20799743241524</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>46.44981348077611</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>35.18183898925781</v>
+        <v>30.56195068359375</v>
       </c>
       <c r="C132">
-        <v>35.31789779663086</v>
+        <v>30.58456993103028</v>
       </c>
       <c r="D132">
-        <v>34.86620330810547</v>
+        <v>30.08373641967773</v>
       </c>
       <c r="E132">
-        <v>35.21498870849609</v>
+        <v>30.3226089477539</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>35.81189909612552</v>
+        <v>30.76535291878193</v>
       </c>
       <c r="H132">
-        <v>35.77814464569092</v>
+        <v>30.21344728469849</v>
       </c>
       <c r="I132">
-        <v>35.92657101949056</v>
+        <v>31.06555500030517</v>
       </c>
       <c r="L132">
-        <v>40.83490374926201</v>
+        <v>46.38048598910042</v>
       </c>
       <c r="M132">
-        <v>43.61406024110288</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>44.95471438917602</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>35.21283340454102</v>
+        <v>30.33369827270508</v>
       </c>
       <c r="C133">
-        <v>35.21283340454102</v>
+        <v>30.43643379211425</v>
       </c>
       <c r="D133">
-        <v>32.92153549194336</v>
+        <v>29.65716743469238</v>
       </c>
       <c r="E133">
-        <v>32.92153549194336</v>
+        <v>29.82649803161621</v>
       </c>
       <c r="F133">
-        <v>74277920</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>35.5491387684726</v>
+        <v>30.68000247449413</v>
       </c>
       <c r="H133">
-        <v>35.60935649871826</v>
+        <v>30.10851955413818</v>
       </c>
       <c r="I133">
-        <v>35.81414082845052</v>
+        <v>30.97658157348633</v>
       </c>
       <c r="L133">
-        <v>22.87937236561803</v>
+        <v>41.50725315568983</v>
       </c>
       <c r="M133">
-        <v>30.45322928995266</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>41.94847310642992</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>32.93204116821289</v>
+        <v>29.81202125549316</v>
       </c>
       <c r="C134">
-        <v>33.82453155517578</v>
+        <v>30.93373680114746</v>
       </c>
       <c r="D134">
-        <v>32.92245101928711</v>
+        <v>29.71906852722168</v>
       </c>
       <c r="E134">
-        <v>33.52947235107422</v>
+        <v>30.54912185668945</v>
       </c>
       <c r="F134">
-        <v>40623392</v>
+        <v>15755456</v>
       </c>
       <c r="G134">
-        <v>35.36553273052728</v>
+        <v>30.66810423651189</v>
       </c>
       <c r="H134">
-        <v>35.52230701446533</v>
+        <v>30.07470998764038</v>
       </c>
       <c r="I134">
-        <v>35.71676394144694</v>
+        <v>30.91562525431315</v>
       </c>
       <c r="L134">
-        <v>31.81957827680708</v>
+        <v>50.09892673525285</v>
       </c>
       <c r="M134">
-        <v>35.96893153641277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>47.45982663067512</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>33.53049850463867</v>
+        <v>30.54808616638184</v>
       </c>
       <c r="C135">
-        <v>33.63565444946289</v>
+        <v>30.66885566711425</v>
       </c>
       <c r="D135">
-        <v>32.69871520996094</v>
+        <v>30.30235290527344</v>
       </c>
       <c r="E135">
-        <v>33.08870697021484</v>
+        <v>30.48410034179688</v>
       </c>
       <c r="F135">
-        <v>13343872</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>35.15854857049888</v>
+        <v>30.65137660971961</v>
       </c>
       <c r="H135">
-        <v>35.36041622161865</v>
+        <v>30.07164602279663</v>
       </c>
       <c r="I135">
-        <v>35.61962483723958</v>
+        <v>30.83877894083659</v>
       </c>
       <c r="L135">
-        <v>29.07082450116135</v>
+        <v>49.3649341978232</v>
       </c>
       <c r="M135">
-        <v>33.87148105776691</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>47.02719014341961</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>33.08774948120117</v>
+        <v>30.48351287841797</v>
       </c>
       <c r="C136">
-        <v>33.68983840942383</v>
+        <v>30.89193344116211</v>
       </c>
       <c r="D136">
-        <v>33.02406692504883</v>
+        <v>30.16440773010254</v>
       </c>
       <c r="E136">
-        <v>33.39221572875977</v>
+        <v>30.71392822265625</v>
       </c>
       <c r="F136">
-        <v>2347584</v>
+        <v>13267360</v>
       </c>
       <c r="G136">
-        <v>34.9979728576135</v>
+        <v>30.65706311998658</v>
       </c>
       <c r="H136">
-        <v>35.24679317474365</v>
+        <v>30.11662454605102</v>
       </c>
       <c r="I136">
-        <v>35.52214546203614</v>
+        <v>30.76186561584473</v>
       </c>
       <c r="L136">
-        <v>33.51970395880195</v>
+        <v>52.15247268790187</v>
       </c>
       <c r="M136">
-        <v>36.61252541381224</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>48.8036931312962</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>33.39570236206055</v>
+        <v>30.71586608886719</v>
       </c>
       <c r="C137">
-        <v>33.68729019165039</v>
+        <v>30.89121055603028</v>
       </c>
       <c r="D137">
-        <v>33.29645919799805</v>
+        <v>30.48720741271973</v>
       </c>
       <c r="E137">
-        <v>33.63893127441406</v>
+        <v>30.6005802154541</v>
       </c>
       <c r="F137">
-        <v>2719872</v>
+        <v>8673024</v>
       </c>
       <c r="G137">
-        <v>34.87442362277719</v>
+        <v>30.65192831048362</v>
       </c>
       <c r="H137">
-        <v>35.11972274780273</v>
+        <v>30.17361192703247</v>
       </c>
       <c r="I137">
-        <v>35.42877515157064</v>
+        <v>30.68030122121175</v>
       </c>
       <c r="L137">
-        <v>37.12610407707534</v>
+        <v>50.60671525904834</v>
       </c>
       <c r="M137">
-        <v>38.83205593463393</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>47.94962212066135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>33.64168930053711</v>
+        <v>30.60191345214844</v>
       </c>
       <c r="C138">
-        <v>33.64168930053711</v>
+        <v>32.28923416137695</v>
       </c>
       <c r="D138">
-        <v>32.54961395263672</v>
+        <v>30.60138320922852</v>
       </c>
       <c r="E138">
-        <v>32.63990783691406</v>
+        <v>32.23896789550781</v>
       </c>
       <c r="F138">
-        <v>27088384</v>
+        <v>54366656</v>
       </c>
       <c r="G138">
-        <v>34.67128582406236</v>
+        <v>30.79620463639491</v>
       </c>
       <c r="H138">
-        <v>34.96144313812256</v>
+        <v>30.28842267990112</v>
       </c>
       <c r="I138">
-        <v>35.27675234476725</v>
+        <v>30.64588731129964</v>
       </c>
       <c r="L138">
-        <v>29.76940757100283</v>
+        <v>66.67056658347457</v>
       </c>
       <c r="M138">
-        <v>33.68809183136076</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>59.09319225838925</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>32.63876724243164</v>
+        <v>32.24291610717773</v>
       </c>
       <c r="C139">
-        <v>32.81561279296875</v>
+        <v>32.27127838134766</v>
       </c>
       <c r="D139">
-        <v>31.31074905395508</v>
+        <v>31.58354377746582</v>
       </c>
       <c r="E139">
-        <v>32.7603874206543</v>
+        <v>32.20161437988281</v>
       </c>
       <c r="F139">
-        <v>29706688</v>
+        <v>27269952</v>
       </c>
       <c r="G139">
-        <v>34.4975677873889</v>
+        <v>30.92396915853018</v>
       </c>
       <c r="H139">
-        <v>34.81057910919189</v>
+        <v>30.43675107955933</v>
       </c>
       <c r="I139">
-        <v>35.16452395121257</v>
+        <v>30.61995105743408</v>
       </c>
       <c r="L139">
-        <v>31.60805607983438</v>
+        <v>66.11902842785089</v>
       </c>
       <c r="M139">
-        <v>34.80962846926381</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>58.78419081997071</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>32.75239181518555</v>
+        <v>32.19594955444336</v>
       </c>
       <c r="C140">
-        <v>33.06303024291992</v>
+        <v>33.01654434204102</v>
       </c>
       <c r="D140">
-        <v>32.45689392089844</v>
+        <v>32.15657806396484</v>
       </c>
       <c r="E140">
-        <v>32.63910293579102</v>
+        <v>32.69830322265625</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>34551712</v>
       </c>
       <c r="G140">
-        <v>34.32861643724363</v>
+        <v>31.08527225526891</v>
       </c>
       <c r="H140">
-        <v>34.65731029510498</v>
+        <v>30.68066673278809</v>
       </c>
       <c r="I140">
-        <v>35.07461026509603</v>
+        <v>30.60831775665283</v>
       </c>
       <c r="L140">
-        <v>30.69788069132822</v>
+        <v>69.8500935521496</v>
       </c>
       <c r="M140">
-        <v>34.18286046880365</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>61.65540019899998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>32.64551544189453</v>
+        <v>32.7042236328125</v>
       </c>
       <c r="C141">
-        <v>32.92415237426758</v>
+        <v>32.91535186767578</v>
       </c>
       <c r="D141">
-        <v>32.45866012573242</v>
+        <v>32.15215682983398</v>
       </c>
       <c r="E141">
-        <v>32.73041152954102</v>
+        <v>32.2835578918457</v>
       </c>
       <c r="F141">
-        <v>2123968</v>
+        <v>15580928</v>
       </c>
       <c r="G141">
-        <v>34.18332508199794</v>
+        <v>31.19420731313953</v>
       </c>
       <c r="H141">
-        <v>34.51824550628662</v>
+        <v>30.8408576965332</v>
       </c>
       <c r="I141">
-        <v>34.96442947387695</v>
+        <v>30.60197149912516</v>
       </c>
       <c r="L141">
-        <v>32.34782020636353</v>
+        <v>63.30160163454558</v>
       </c>
       <c r="M141">
-        <v>35.12984622044934</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>58.02072215428958</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>32.73027420043945</v>
+        <v>32.27614593505859</v>
       </c>
       <c r="C142">
-        <v>32.89426803588867</v>
+        <v>32.80762481689453</v>
       </c>
       <c r="D142">
-        <v>32.58767318725586</v>
+        <v>32.20375823974609</v>
       </c>
       <c r="E142">
-        <v>32.58767318725586</v>
+        <v>32.64890289306641</v>
       </c>
       <c r="F142">
-        <v>1088992</v>
+        <v>6042944</v>
       </c>
       <c r="G142">
-        <v>34.03826581883956</v>
+        <v>31.32645236586015</v>
       </c>
       <c r="H142">
-        <v>34.36871814727783</v>
+        <v>31.02707490921021</v>
       </c>
       <c r="I142">
-        <v>34.84970792134603</v>
+        <v>30.61715068817139</v>
       </c>
       <c r="L142">
-        <v>31.04784667475883</v>
+        <v>66.42129844418015</v>
       </c>
       <c r="M142">
-        <v>34.29903935733987</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>60.24404904246735</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>32.58604431152344</v>
+        <v>32.65066909790039</v>
       </c>
       <c r="C143">
-        <v>32.69046020507812</v>
+        <v>32.83755493164062</v>
       </c>
       <c r="D143">
-        <v>32.04904556274414</v>
+        <v>32.03195953369141</v>
       </c>
       <c r="E143">
-        <v>32.36994171142578</v>
+        <v>32.050048828125</v>
       </c>
       <c r="F143">
-        <v>7717568</v>
+        <v>14258944</v>
       </c>
       <c r="G143">
-        <v>33.88659999089285</v>
+        <v>31.39223386242968</v>
       </c>
       <c r="H143">
-        <v>34.17352333068848</v>
+        <v>31.10127220153809</v>
       </c>
       <c r="I143">
-        <v>34.71879603068034</v>
+        <v>30.62131722768148</v>
       </c>
       <c r="L143">
-        <v>29.04480042991472</v>
+        <v>57.4201136008319</v>
       </c>
       <c r="M143">
-        <v>33.01635953495682</v>
-      </c>
-      <c r="N143" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>55.09330793051119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>32.37578964233398</v>
+        <v>32.05492401123047</v>
       </c>
       <c r="C144">
-        <v>32.6519889831543</v>
+        <v>32.41560363769531</v>
       </c>
       <c r="D144">
-        <v>32.32102966308594</v>
+        <v>31.91298866271973</v>
       </c>
       <c r="E144">
-        <v>32.49570083618164</v>
+        <v>32.31624603271484</v>
       </c>
       <c r="F144">
-        <v>3185408</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>33.76015461319183</v>
+        <v>31.47623496881923</v>
       </c>
       <c r="H144">
-        <v>34.02787284851074</v>
+        <v>31.23719511032105</v>
       </c>
       <c r="I144">
-        <v>34.62630399068197</v>
+        <v>30.65768165588379</v>
       </c>
       <c r="L144">
-        <v>31.8996274027866</v>
+        <v>60.12254549835065</v>
       </c>
       <c r="M144">
-        <v>34.53908411074629</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>56.8589921172961</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>32.4951286315918</v>
+        <v>32.31680297851562</v>
       </c>
       <c r="C145">
-        <v>32.57333374023438</v>
+        <v>32.76205062866211</v>
       </c>
       <c r="D145">
-        <v>32.23855972290039</v>
+        <v>32.28010940551758</v>
       </c>
       <c r="E145">
-        <v>32.37781143188477</v>
+        <v>32.64371109008789</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>33.63448705125482</v>
+        <v>31.58236916166184</v>
       </c>
       <c r="H145">
-        <v>33.83548755645752</v>
+        <v>31.34718418121338</v>
       </c>
       <c r="I145">
-        <v>34.49468027750651</v>
+        <v>30.72762603759766</v>
       </c>
       <c r="L145">
-        <v>30.60118812693911</v>
+        <v>63.34234573189958</v>
       </c>
       <c r="M145">
-        <v>33.7642134847235</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>58.99491625325926</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>32.37778854370117</v>
+        <v>32.643798828125</v>
       </c>
       <c r="C146">
-        <v>32.92308044433594</v>
+        <v>32.83736801147461</v>
       </c>
       <c r="D146">
-        <v>32.35700225830078</v>
+        <v>32.34779357910156</v>
       </c>
       <c r="E146">
-        <v>32.78948974609375</v>
+        <v>32.78955078125</v>
       </c>
       <c r="F146">
-        <v>1182592</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>33.557669114422</v>
+        <v>31.69211294526076</v>
       </c>
       <c r="H146">
-        <v>33.68584308624268</v>
+        <v>31.42765283584595</v>
       </c>
       <c r="I146">
-        <v>34.39884071350097</v>
+        <v>30.82679913838705</v>
       </c>
       <c r="L146">
-        <v>40.16872283806739</v>
+        <v>64.76764627463574</v>
       </c>
       <c r="M146">
-        <v>38.91770568162648</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>59.94603877136483</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>32.8138313293457</v>
+        <v>32.78675079345703</v>
       </c>
       <c r="C147">
-        <v>33.08981323242188</v>
+        <v>33.2649040222168</v>
       </c>
       <c r="D147">
-        <v>32.47462844848633</v>
+        <v>32.75506210327148</v>
       </c>
       <c r="E147">
-        <v>33.02132797241211</v>
+        <v>33.24028396606445</v>
       </c>
       <c r="F147">
-        <v>552320</v>
+        <v>13013152</v>
       </c>
       <c r="G147">
-        <v>33.50891082878474</v>
+        <v>31.83285576533382</v>
       </c>
       <c r="H147">
-        <v>33.54153804779052</v>
+        <v>31.5431004524231</v>
       </c>
       <c r="I147">
-        <v>34.29354031880697</v>
+        <v>30.95278085072835</v>
       </c>
       <c r="L147">
-        <v>44.97478452411516</v>
+        <v>68.96341914947575</v>
       </c>
       <c r="M147">
-        <v>41.67010752129709</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>62.81665844994563</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>33.01319122314453</v>
+        <v>33.26731491088867</v>
       </c>
       <c r="C148">
-        <v>33.16115951538086</v>
+        <v>36.03152084350586</v>
       </c>
       <c r="D148">
-        <v>32.78854370117188</v>
+        <v>33.26684951782227</v>
       </c>
       <c r="E148">
-        <v>33.04751205444336</v>
+        <v>35.79721069335938</v>
       </c>
       <c r="F148">
-        <v>940928</v>
+        <v>159864096</v>
       </c>
       <c r="G148">
-        <v>33.46696548566279</v>
+        <v>32.1932516678816</v>
       </c>
       <c r="H148">
-        <v>33.39455871582031</v>
+        <v>31.7991771697998</v>
       </c>
       <c r="I148">
-        <v>34.20160738627116</v>
+        <v>31.14792944590251</v>
       </c>
       <c r="L148">
-        <v>45.53071131133579</v>
+        <v>82.3657192043766</v>
       </c>
       <c r="M148">
-        <v>41.98805174537477</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>74.13941123376642</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>33.05091094970703</v>
+        <v>35.82592391967773</v>
       </c>
       <c r="C149">
-        <v>33.40129089355469</v>
+        <v>36.32819747924805</v>
       </c>
       <c r="D149">
-        <v>32.9694938659668</v>
+        <v>35.40374374389648</v>
       </c>
       <c r="E149">
-        <v>33.27138519287109</v>
+        <v>35.73239898681641</v>
       </c>
       <c r="F149">
-        <v>4005248</v>
+        <v>163070432</v>
       </c>
       <c r="G149">
-        <v>33.44918545904536</v>
+        <v>32.51499233323931</v>
       </c>
       <c r="H149">
-        <v>33.27479209899902</v>
+        <v>32.02467155456543</v>
       </c>
       <c r="I149">
-        <v>34.11806462605794</v>
+        <v>31.36450786590576</v>
       </c>
       <c r="L149">
-        <v>50.35515422665905</v>
+        <v>81.36381894967298</v>
       </c>
       <c r="M149">
-        <v>44.76047186621356</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>73.5282194378657</v>
+      </c>
+      <c r="O149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>33.27356338500977</v>
+        <v>35.73522567749023</v>
       </c>
       <c r="C150">
-        <v>33.43380355834961</v>
+        <v>36.62936401367188</v>
       </c>
       <c r="D150">
-        <v>32.91732788085938</v>
+        <v>35.65968322753906</v>
       </c>
       <c r="E150">
-        <v>32.97970199584961</v>
+        <v>36.11708450317383</v>
       </c>
       <c r="F150">
-        <v>4821056</v>
+        <v>115036480</v>
       </c>
       <c r="G150">
-        <v>33.40650514420938</v>
+        <v>32.84245525777881</v>
       </c>
       <c r="H150">
-        <v>33.13351650238037</v>
+        <v>32.29086446762085</v>
       </c>
       <c r="I150">
-        <v>34.02723871866862</v>
+        <v>31.64107767740886</v>
       </c>
       <c r="L150">
-        <v>44.56899647400484</v>
+        <v>82.76380673877664</v>
       </c>
       <c r="M150">
-        <v>41.94764329527534</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>74.85331206378739</v>
+      </c>
+      <c r="O150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>32.9780387878418</v>
+        <v>36.1195182800293</v>
       </c>
       <c r="C151">
-        <v>33.22488784790039</v>
+        <v>36.2443733215332</v>
       </c>
       <c r="D151">
-        <v>32.78007888793945</v>
+        <v>35.38291931152344</v>
       </c>
       <c r="E151">
-        <v>33.04730224609375</v>
+        <v>35.6144905090332</v>
       </c>
       <c r="F151">
-        <v>6148384</v>
+        <v>105368000</v>
       </c>
       <c r="G151">
-        <v>33.37385033528978</v>
+        <v>33.0944584624383</v>
       </c>
       <c r="H151">
-        <v>33.02717533111572</v>
+        <v>32.54346046447754</v>
       </c>
       <c r="I151">
-        <v>33.94509188334147</v>
+        <v>31.85890274047852</v>
       </c>
       <c r="J151">
-        <v>36.86229296366373</v>
+        <v>34.43502844492594</v>
       </c>
       <c r="L151">
-        <v>46.18137985378311</v>
+        <v>74.53406653976941</v>
       </c>
       <c r="M151">
-        <v>42.84410392642737</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>69.92824811359993</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>33.05786895751953</v>
+        <v>35.61359786987305</v>
       </c>
       <c r="C152">
-        <v>33.11076736450195</v>
+        <v>35.94237899780273</v>
       </c>
       <c r="D152">
-        <v>32.47394561767578</v>
+        <v>34.53060531616211</v>
       </c>
       <c r="E152">
-        <v>32.47394561767578</v>
+        <v>34.6300163269043</v>
       </c>
       <c r="F152">
-        <v>7644000</v>
+        <v>58408192</v>
       </c>
       <c r="G152">
-        <v>33.29204081550669</v>
+        <v>33.23405463193521</v>
       </c>
       <c r="H152">
-        <v>32.8901231765747</v>
+        <v>32.75883083343506</v>
       </c>
       <c r="I152">
-        <v>33.84161605834961</v>
+        <v>32.04908466339111</v>
       </c>
       <c r="J152">
-        <v>36.8041691577566</v>
+        <v>34.4376110658793</v>
       </c>
       <c r="L152">
-        <v>36.14833187633455</v>
+        <v>61.13751526121563</v>
       </c>
       <c r="M152">
-        <v>37.54796906471633</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>61.40549670323924</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>32.48581314086914</v>
+        <v>34.63748168945312</v>
       </c>
       <c r="C153">
-        <v>32.65677642822266</v>
+        <v>35.08516311645508</v>
       </c>
       <c r="D153">
-        <v>31.99560928344727</v>
+        <v>34.40244674682617</v>
       </c>
       <c r="E153">
-        <v>32.19352722167969</v>
+        <v>34.79763412475586</v>
       </c>
       <c r="F153">
-        <v>18053248</v>
+        <v>31701312</v>
       </c>
       <c r="G153">
-        <v>33.19217594334059</v>
+        <v>33.37619822219163</v>
       </c>
       <c r="H153">
-        <v>32.85372276306153</v>
+        <v>33.00738763809204</v>
       </c>
       <c r="I153">
-        <v>33.70560569763184</v>
+        <v>32.1901357014974</v>
       </c>
       <c r="J153">
-        <v>36.74310105264301</v>
+        <v>34.44237958321542</v>
       </c>
       <c r="L153">
-        <v>32.28866153958127</v>
+        <v>62.43092756672767</v>
       </c>
       <c r="M153">
-        <v>35.25273423866928</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>62.24913172589447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>32.19780349731445</v>
+        <v>34.79945755004883</v>
       </c>
       <c r="C154">
-        <v>32.27101516723633</v>
+        <v>35.71505355834961</v>
       </c>
       <c r="D154">
-        <v>31.73797416687012</v>
+        <v>34.59693908691406</v>
       </c>
       <c r="E154">
-        <v>31.92505264282227</v>
+        <v>35.44345855712891</v>
       </c>
       <c r="F154">
-        <v>49295040</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>33.07698291602075</v>
+        <v>33.56413097991319</v>
       </c>
       <c r="H154">
-        <v>32.77350177764892</v>
+        <v>33.25210447311402</v>
       </c>
       <c r="I154">
-        <v>33.5894837697347</v>
+        <v>32.38499139149984</v>
       </c>
       <c r="J154">
-        <v>36.67928584191691</v>
+        <v>34.45563890737322</v>
       </c>
       <c r="L154">
-        <v>28.95834935785217</v>
+        <v>67.16743382051092</v>
       </c>
       <c r="M154">
-        <v>33.16261621260856</v>
-      </c>
-      <c r="N154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>65.38840936681179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>31.92742156982422</v>
+        <v>35.44374084472656</v>
       </c>
       <c r="C155">
-        <v>31.93666839599609</v>
+        <v>35.49054718017578</v>
       </c>
       <c r="D155">
-        <v>30.78210067749023</v>
+        <v>34.85636901855469</v>
       </c>
       <c r="E155">
-        <v>31.22531318664551</v>
+        <v>34.87134552001953</v>
       </c>
       <c r="F155">
-        <v>43709312</v>
+        <v>9246144</v>
       </c>
       <c r="G155">
-        <v>32.90864930425936</v>
+        <v>33.68296866537741</v>
       </c>
       <c r="H155">
-        <v>32.68033208847046</v>
+        <v>33.47146673202515</v>
       </c>
       <c r="I155">
-        <v>33.42281030019124</v>
+        <v>32.53257191975911</v>
       </c>
       <c r="J155">
-        <v>36.60704779350272</v>
+        <v>34.46114495522284</v>
       </c>
       <c r="L155">
-        <v>22.23414322919037</v>
+        <v>59.67013901963794</v>
       </c>
       <c r="M155">
-        <v>28.43120077254176</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>60.58222877356895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>31.21836280822754</v>
+        <v>34.86714553833008</v>
       </c>
       <c r="C156">
-        <v>31.51672744750977</v>
+        <v>35.29206466674805</v>
       </c>
       <c r="D156">
-        <v>30.22291374206543</v>
+        <v>34.77348709106445</v>
       </c>
       <c r="E156">
-        <v>30.54537963867188</v>
+        <v>34.85440063476562</v>
       </c>
       <c r="F156">
-        <v>39546848</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>32.69380660738777</v>
+        <v>33.78946248077634</v>
       </c>
       <c r="H156">
-        <v>32.53799028396607</v>
+        <v>33.67849035263062</v>
       </c>
       <c r="I156">
-        <v>33.24824364980062</v>
+        <v>32.65504601796468</v>
       </c>
       <c r="J156">
-        <v>36.52676079807449</v>
+        <v>34.46635363972009</v>
       </c>
       <c r="L156">
-        <v>17.73292374098287</v>
+        <v>59.4490333192706</v>
       </c>
       <c r="M156">
-        <v>24.7378612219539</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>60.44052903764539</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>30.55684280395508</v>
+        <v>34.85610198974609</v>
       </c>
       <c r="C157">
-        <v>30.7064266204834</v>
+        <v>35.75153350830078</v>
       </c>
       <c r="D157">
-        <v>29.52483558654785</v>
+        <v>34.41420745849609</v>
       </c>
       <c r="E157">
-        <v>29.81435775756836</v>
+        <v>35.75153350830078</v>
       </c>
       <c r="F157">
-        <v>93313408</v>
+        <v>9137024</v>
       </c>
       <c r="G157">
-        <v>32.43203853013146</v>
+        <v>33.96783257418765</v>
       </c>
       <c r="H157">
-        <v>32.34676160812378</v>
+        <v>33.93603801727295</v>
       </c>
       <c r="I157">
-        <v>33.04514128367106</v>
+        <v>32.81571941375732</v>
       </c>
       <c r="J157">
-        <v>36.43785479753799</v>
+        <v>34.48337588963507</v>
       </c>
       <c r="L157">
-        <v>14.24486004303315</v>
+        <v>66.78071818495526</v>
       </c>
       <c r="M157">
-        <v>21.50354365520819</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>65.09541546363121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>29.8169994354248</v>
+        <v>35.76659774780273</v>
       </c>
       <c r="C158">
-        <v>30.5449104309082</v>
+        <v>36.46578598022461</v>
       </c>
       <c r="D158">
-        <v>29.42544746398925</v>
+        <v>35.61952209472656</v>
       </c>
       <c r="E158">
-        <v>29.4608325958252</v>
+        <v>36.02634811401367</v>
       </c>
       <c r="F158">
-        <v>60318592</v>
+        <v>63572224</v>
       </c>
       <c r="G158">
-        <v>32.16192889973998</v>
+        <v>34.15497035053546</v>
       </c>
       <c r="H158">
-        <v>32.18780784606933</v>
+        <v>34.12540702819824</v>
       </c>
       <c r="I158">
-        <v>32.82759908040364</v>
+        <v>32.99407513936361</v>
       </c>
       <c r="J158">
-        <v>36.34544390744908</v>
+        <v>34.50381260783877</v>
       </c>
       <c r="L158">
-        <v>12.86780583834834</v>
+        <v>68.72911880825831</v>
       </c>
       <c r="M158">
-        <v>20.13267268424002</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>66.39969175220567</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>29.48297309875488</v>
+        <v>36.01900100708008</v>
       </c>
       <c r="C159">
-        <v>30.16740417480469</v>
+        <v>36.21738433837891</v>
       </c>
       <c r="D159">
-        <v>29.35498237609864</v>
+        <v>35.87236785888672</v>
       </c>
       <c r="E159">
-        <v>29.94275283813477</v>
+        <v>36.0805778503418</v>
       </c>
       <c r="F159">
-        <v>16752768</v>
+        <v>274688</v>
       </c>
       <c r="G159">
-        <v>31.96018562141224</v>
+        <v>34.33002557779059</v>
       </c>
       <c r="H159">
-        <v>32.04692611694336</v>
+        <v>34.31935520172119</v>
       </c>
       <c r="I159">
-        <v>32.63680025736491</v>
+        <v>33.15601069132487</v>
       </c>
       <c r="J159">
-        <v>36.26064005222637</v>
+        <v>34.52469691568649</v>
       </c>
       <c r="L159">
-        <v>24.1175253841011</v>
+        <v>69.13105764860872</v>
       </c>
       <c r="M159">
-        <v>26.96771138257249</v>
-      </c>
-      <c r="N159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>66.66440622527948</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>29.93622016906738</v>
+        <v>36.07376861572266</v>
       </c>
       <c r="C160">
-        <v>30.17049026489257</v>
+        <v>36.38778305053711</v>
       </c>
       <c r="D160">
-        <v>29.21403312683105</v>
+        <v>35.6879997253418</v>
       </c>
       <c r="E160">
-        <v>29.23504638671875</v>
+        <v>35.7890739440918</v>
       </c>
       <c r="F160">
-        <v>8408576</v>
+        <v>3817472</v>
       </c>
       <c r="G160">
-        <v>31.71244569098555</v>
+        <v>34.46266633836343</v>
       </c>
       <c r="H160">
-        <v>31.87672328948975</v>
+        <v>34.47389373779297</v>
       </c>
       <c r="I160">
-        <v>32.41779467264811</v>
+        <v>33.32253894805908</v>
       </c>
       <c r="J160">
-        <v>36.16758583149117</v>
+        <v>34.54144363129451</v>
       </c>
       <c r="L160">
-        <v>19.87760573844491</v>
+        <v>64.14516215352499</v>
       </c>
       <c r="M160">
-        <v>23.75292843449239</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>63.75669168620755</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>29.2448844909668</v>
+        <v>35.7850227355957</v>
       </c>
       <c r="C161">
-        <v>29.41889381408692</v>
+        <v>35.96475982666016</v>
       </c>
       <c r="D161">
-        <v>27.55914115905762</v>
+        <v>35.53700256347656</v>
       </c>
       <c r="E161">
-        <v>27.81999015808105</v>
+        <v>35.72408294677734</v>
       </c>
       <c r="F161">
-        <v>99797632</v>
+        <v>24580352</v>
       </c>
       <c r="G161">
-        <v>31.35858609708514</v>
+        <v>34.57734057549197</v>
       </c>
       <c r="H161">
-        <v>31.63120222091675</v>
+        <v>34.64591999053955</v>
       </c>
       <c r="I161">
-        <v>32.17265682220459</v>
+        <v>33.49458936055501</v>
       </c>
       <c r="J161">
-        <v>36.0570216503864</v>
+        <v>34.55710772818833</v>
       </c>
       <c r="L161">
-        <v>14.24452553346479</v>
+        <v>63.00541325887893</v>
       </c>
       <c r="M161">
-        <v>18.90114947134426</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>63.09591832779918</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>27.8364315032959</v>
+        <v>35.72565841674805</v>
       </c>
       <c r="C162">
-        <v>29.2433967590332</v>
+        <v>37.09964370727539</v>
       </c>
       <c r="D162">
-        <v>27.37829208374023</v>
+        <v>35.57952499389648</v>
       </c>
       <c r="E162">
-        <v>29.07973861694336</v>
+        <v>37.09964370727539</v>
       </c>
       <c r="F162">
-        <v>81204480</v>
+        <v>82126400</v>
       </c>
       <c r="G162">
-        <v>31.15141814434498</v>
+        <v>34.80664086019955</v>
       </c>
       <c r="H162">
-        <v>31.45580549240112</v>
+        <v>34.86845703125</v>
       </c>
       <c r="I162">
-        <v>31.9681484858195</v>
+        <v>33.72049051920573</v>
       </c>
       <c r="J162">
-        <v>35.96460730557259</v>
+        <v>34.59078370142127</v>
       </c>
       <c r="L162">
-        <v>33.20293516225423</v>
+        <v>74.00389350857294</v>
       </c>
       <c r="M162">
-        <v>32.18194265944712</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>70.14792264716527</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>29.08187294006348</v>
+        <v>37.08446502685547</v>
       </c>
       <c r="C163">
-        <v>29.35489463806152</v>
+        <v>37.08446502685547</v>
       </c>
       <c r="D163">
-        <v>28.7745418548584</v>
+        <v>35.66718673706055</v>
       </c>
       <c r="E163">
-        <v>28.92455863952637</v>
+        <v>36.14161682128906</v>
       </c>
       <c r="F163">
-        <v>15988736</v>
+        <v>46453504</v>
       </c>
       <c r="G163">
-        <v>30.94897637117965</v>
+        <v>34.92800231120768</v>
       </c>
       <c r="H163">
-        <v>31.28353633880615</v>
+        <v>35.07303543090821</v>
       </c>
       <c r="I163">
-        <v>31.83491592407227</v>
+        <v>33.93099447886149</v>
       </c>
       <c r="J163">
-        <v>35.87136162787662</v>
+        <v>34.61132453744602</v>
       </c>
       <c r="L163">
-        <v>32.21593955149758</v>
+        <v>60.02227645467629</v>
       </c>
       <c r="M163">
-        <v>31.49767757494539</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>61.3543363172274</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>28.91089248657227</v>
+        <v>36.13936233520508</v>
       </c>
       <c r="C164">
-        <v>30.59928703308105</v>
+        <v>36.47138977050781</v>
       </c>
       <c r="D164">
-        <v>28.81321334838867</v>
+        <v>35.88193893432617</v>
       </c>
       <c r="E164">
-        <v>30.56610298156738</v>
+        <v>36.2240104675293</v>
       </c>
       <c r="F164">
-        <v>47252416</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>30.91416969939672</v>
+        <v>35.04582123450965</v>
       </c>
       <c r="H164">
-        <v>31.18705644607544</v>
+        <v>35.26842365264893</v>
       </c>
       <c r="I164">
-        <v>31.73613694508871</v>
+        <v>34.12015743255616</v>
       </c>
       <c r="J164">
-        <v>35.80109330143544</v>
+        <v>34.63268461599017</v>
       </c>
       <c r="L164">
-        <v>49.92902594029199</v>
+        <v>60.7399423593962</v>
       </c>
       <c r="M164">
-        <v>44.8550117061538</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>61.79788302077493</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>30.59920692443848</v>
+        <v>36.21903991699219</v>
       </c>
       <c r="C165">
-        <v>30.62552833557129</v>
+        <v>36.33576965332031</v>
       </c>
       <c r="D165">
-        <v>29.55598640441895</v>
+        <v>35.08681869506836</v>
       </c>
       <c r="E165">
-        <v>29.59778785705566</v>
+        <v>35.13396453857422</v>
       </c>
       <c r="F165">
-        <v>18519104</v>
+        <v>11255232</v>
       </c>
       <c r="G165">
-        <v>30.79449862282026</v>
+        <v>35.05383426215189</v>
       </c>
       <c r="H165">
-        <v>31.04805526733399</v>
+        <v>35.39293632507324</v>
       </c>
       <c r="I165">
-        <v>31.61977297465006</v>
+        <v>34.27515290578206</v>
       </c>
       <c r="J165">
-        <v>35.71893031541716</v>
+        <v>34.63932408516347</v>
       </c>
       <c r="L165">
-        <v>42.5502344731303</v>
+        <v>47.93306964849725</v>
       </c>
       <c r="M165">
-        <v>39.911239109878</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>53.11280744401041</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>29.59634971618652</v>
+        <v>35.15542221069336</v>
       </c>
       <c r="C166">
-        <v>30.68215560913086</v>
+        <v>35.26126861572266</v>
       </c>
       <c r="D166">
-        <v>29.51006889343262</v>
+        <v>34.7456169128418</v>
       </c>
       <c r="E166">
-        <v>30.44392967224121</v>
+        <v>34.94467163085938</v>
       </c>
       <c r="F166">
-        <v>26131584</v>
+        <v>9782400</v>
       </c>
       <c r="G166">
-        <v>30.76262871822216</v>
+        <v>35.04391038657984</v>
       </c>
       <c r="H166">
-        <v>30.93077726364136</v>
+        <v>35.50069236755371</v>
       </c>
       <c r="I166">
-        <v>31.52149677276611</v>
+        <v>34.4161776860555</v>
       </c>
       <c r="J166">
-        <v>35.6490627572294</v>
+        <v>34.64336842351706</v>
       </c>
       <c r="L166">
-        <v>49.83787634868499</v>
+        <v>46.03673365738555</v>
       </c>
       <c r="M166">
-        <v>45.55792119615052</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>51.75259615923261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>30.44849967956543</v>
+        <v>34.94388198852539</v>
       </c>
       <c r="C167">
-        <v>31.69362258911133</v>
+        <v>35.14326477050781</v>
       </c>
       <c r="D167">
-        <v>30.44849967956543</v>
+        <v>34.694091796875</v>
       </c>
       <c r="E167">
-        <v>31.18017768859864</v>
+        <v>35.00391006469727</v>
       </c>
       <c r="F167">
-        <v>6004288</v>
+        <v>9433920</v>
       </c>
       <c r="G167">
-        <v>30.80058771552911</v>
+        <v>35.04027399368142</v>
       </c>
       <c r="H167">
-        <v>30.83871974945068</v>
+        <v>35.58887367248535</v>
       </c>
       <c r="I167">
-        <v>31.4395383199056</v>
+        <v>34.56295534769694</v>
       </c>
       <c r="J167">
-        <v>35.58987222651906</v>
+        <v>34.64814380949296</v>
       </c>
       <c r="L167">
-        <v>55.37870176312538</v>
+        <v>46.77803148465133</v>
       </c>
       <c r="M167">
-        <v>49.96396340768002</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>52.16545602073931</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>31.1900577545166</v>
+        <v>35.00333786010742</v>
       </c>
       <c r="C168">
-        <v>31.85946655273437</v>
+        <v>35.00333786010742</v>
       </c>
       <c r="D168">
-        <v>30.63732719421387</v>
+        <v>34.05011367797852</v>
       </c>
       <c r="E168">
-        <v>30.93133163452148</v>
+        <v>34.67520141601562</v>
       </c>
       <c r="F168">
-        <v>15383168</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>30.8124735263466</v>
+        <v>35.00708557752998</v>
       </c>
       <c r="H168">
-        <v>30.73291072845459</v>
+        <v>35.53277320861817</v>
       </c>
       <c r="I168">
-        <v>31.38258577982585</v>
+        <v>34.64416313171387</v>
       </c>
       <c r="J168">
-        <v>35.52816970212174</v>
+        <v>34.6485021883873</v>
       </c>
       <c r="L168">
-        <v>53.14650534032479</v>
+        <v>43.08345151154308</v>
       </c>
       <c r="M168">
-        <v>48.53423531916327</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>49.62772645502059</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>30.93457984924316</v>
+        <v>34.68072891235352</v>
       </c>
       <c r="C169">
-        <v>31.57457160949707</v>
+        <v>35.40263366699219</v>
       </c>
       <c r="D169">
-        <v>30.52666282653809</v>
+        <v>34.38855743408203</v>
       </c>
       <c r="E169">
-        <v>30.6756763458252</v>
+        <v>35.14503860473633</v>
       </c>
       <c r="F169">
-        <v>4659200</v>
+        <v>5520960</v>
       </c>
       <c r="G169">
-        <v>30.80003741902647</v>
+        <v>35.01962676182147</v>
       </c>
       <c r="H169">
-        <v>30.60312528610229</v>
+        <v>35.50340518951416</v>
       </c>
       <c r="I169">
-        <v>31.31309541066488</v>
+        <v>34.74227727254232</v>
       </c>
       <c r="J169">
-        <v>35.46389826693901</v>
+        <v>34.65507882966345</v>
       </c>
       <c r="L169">
-        <v>50.78077360742414</v>
+        <v>49.49740236065571</v>
       </c>
       <c r="M169">
-        <v>47.04481578238836</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>53.13697096375114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>30.65687561035156</v>
+        <v>35.16553115844727</v>
       </c>
       <c r="C170">
-        <v>31.22602844238281</v>
+        <v>35.46770477294922</v>
       </c>
       <c r="D170">
-        <v>30.07490921020508</v>
+        <v>34.7818717956543</v>
       </c>
       <c r="E170">
-        <v>31.2225112915039</v>
+        <v>35.12492752075195</v>
       </c>
       <c r="F170">
-        <v>10710400</v>
+        <v>13494848</v>
       </c>
       <c r="G170">
-        <v>30.83844413470624</v>
+        <v>35.02919955808787</v>
       </c>
       <c r="H170">
-        <v>30.51526575088501</v>
+        <v>35.45379734039307</v>
       </c>
       <c r="I170">
-        <v>31.26587568918864</v>
+        <v>34.8231647491455</v>
       </c>
       <c r="J170">
-        <v>35.4077209560061</v>
+        <v>34.66130199113483</v>
       </c>
       <c r="L170">
-        <v>55.54275139862474</v>
+        <v>49.23024956585557</v>
       </c>
       <c r="M170">
-        <v>50.54104541738054</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>52.96687297296037</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>31.21673202514648</v>
+        <v>35.12379837036133</v>
       </c>
       <c r="C171">
-        <v>31.32682228088379</v>
+        <v>35.15853500366211</v>
       </c>
       <c r="D171">
-        <v>30.58968544006348</v>
+        <v>33.1399040222168</v>
       </c>
       <c r="E171">
-        <v>30.79322624206543</v>
+        <v>33.17029571533203</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>45869440</v>
       </c>
       <c r="G171">
-        <v>30.83433341719344</v>
+        <v>34.86020829965553</v>
       </c>
       <c r="H171">
-        <v>30.40256195068359</v>
+        <v>35.331587600708</v>
       </c>
       <c r="I171">
-        <v>31.20130284627279</v>
+        <v>34.85272267659505</v>
       </c>
       <c r="J171">
-        <v>35.34660182072211</v>
+        <v>34.64155356364075</v>
       </c>
       <c r="L171">
-        <v>51.17041519668688</v>
+        <v>30.95958223660052</v>
       </c>
       <c r="M171">
-        <v>47.86913884776821</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>39.67391542563054</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>30.79232215881348</v>
+        <v>33.16287994384766</v>
       </c>
       <c r="C172">
-        <v>30.79232215881348</v>
+        <v>33.25118637084961</v>
       </c>
       <c r="D172">
-        <v>30.2512092590332</v>
+        <v>32.34072875976562</v>
       </c>
       <c r="E172">
-        <v>30.56257057189941</v>
+        <v>32.92914581298828</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>22407616</v>
       </c>
       <c r="G172">
-        <v>30.80962770398489</v>
+        <v>34.68465716450396</v>
       </c>
       <c r="H172">
-        <v>30.30699319839477</v>
+        <v>35.24654407501221</v>
       </c>
       <c r="I172">
-        <v>31.13379942576091</v>
+        <v>34.86206410725912</v>
       </c>
       <c r="J172">
-        <v>35.28323716841983</v>
+        <v>34.61887266628111</v>
       </c>
       <c r="L172">
-        <v>48.84614124905602</v>
+        <v>29.44295643332518</v>
       </c>
       <c r="M172">
-        <v>46.44828380191981</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>38.39369712596039</v>
+      </c>
+      <c r="N172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>30.56195068359375</v>
+        <v>32.92401504516602</v>
       </c>
       <c r="C173">
-        <v>30.58456993103028</v>
+        <v>33.43932342529297</v>
       </c>
       <c r="D173">
-        <v>30.08373641967773</v>
+        <v>32.84108352661133</v>
       </c>
       <c r="E173">
-        <v>30.3226089477539</v>
+        <v>33.40707778930664</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>2914624</v>
       </c>
       <c r="G173">
-        <v>30.76535327160025</v>
+        <v>34.56851358494057</v>
       </c>
       <c r="H173">
-        <v>30.21344728469849</v>
+        <v>35.17701625823975</v>
       </c>
       <c r="I173">
-        <v>31.06555500030517</v>
+        <v>34.90729840596517</v>
       </c>
       <c r="J173">
-        <v>35.2175334833779</v>
+        <v>34.60282240300992</v>
       </c>
       <c r="L173">
-        <v>46.38047793769434</v>
+        <v>36.39058036265177</v>
       </c>
       <c r="M173">
-        <v>44.95336132727064</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>42.36325463241995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>30.33369827270508</v>
+        <v>33.38966751098633</v>
       </c>
       <c r="C174">
-        <v>30.43643379211425</v>
+        <v>33.48360443115234</v>
       </c>
       <c r="D174">
-        <v>29.65716743469238</v>
+        <v>33.01852416992188</v>
       </c>
       <c r="E174">
-        <v>29.82649803161621</v>
+        <v>33.01852416992188</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>30.68000279523806</v>
+        <v>34.4276054563025</v>
       </c>
       <c r="H174">
-        <v>30.10851955413818</v>
+        <v>35.0557695388794</v>
       </c>
       <c r="I174">
-        <v>30.97658157348633</v>
+        <v>34.9307076772054</v>
       </c>
       <c r="J174">
-        <v>35.14612904030821</v>
+        <v>34.58183832045247</v>
       </c>
       <c r="L174">
-        <v>41.50724738581722</v>
+        <v>33.38400714181061</v>
       </c>
       <c r="M174">
-        <v>41.94744952941242</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>40.10099890649328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>29.81202125549316</v>
+        <v>33.01850509643555</v>
       </c>
       <c r="C175">
-        <v>30.93373680114746</v>
+        <v>33.90343475341797</v>
       </c>
       <c r="D175">
-        <v>29.71906852722168</v>
+        <v>32.84542083740234</v>
       </c>
       <c r="E175">
-        <v>30.54912185668945</v>
+        <v>33.47154235839844</v>
       </c>
       <c r="F175">
-        <v>15755456</v>
+        <v>4572928</v>
       </c>
       <c r="G175">
-        <v>30.66810452809728</v>
+        <v>34.34069062922031</v>
       </c>
       <c r="H175">
-        <v>30.07470998764038</v>
+        <v>34.98577938079834</v>
       </c>
       <c r="I175">
-        <v>30.91562525431315</v>
+        <v>34.95830205281575</v>
       </c>
       <c r="J175">
-        <v>35.0852415279424</v>
+        <v>34.56713241367029</v>
       </c>
       <c r="L175">
-        <v>50.09891965368992</v>
+        <v>39.89721045603698</v>
       </c>
       <c r="M175">
-        <v>47.45850364454822</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>43.86488407757388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>30.54808616638184</v>
+        <v>33.45024108886719</v>
       </c>
       <c r="C176">
-        <v>30.66885566711425</v>
+        <v>33.79955291748047</v>
       </c>
       <c r="D176">
-        <v>30.30235290527344</v>
+        <v>32.97207260131836</v>
       </c>
       <c r="E176">
-        <v>30.48410034179688</v>
+        <v>33.68062591552734</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>16095232</v>
       </c>
       <c r="G176">
-        <v>30.65137687479724</v>
+        <v>34.28068474615731</v>
       </c>
       <c r="H176">
-        <v>30.07164602279663</v>
+        <v>34.92709064483643</v>
       </c>
       <c r="I176">
-        <v>30.83877894083659</v>
+        <v>34.98800455729167</v>
       </c>
       <c r="J176">
-        <v>35.02429926057624</v>
+        <v>34.55539060574787</v>
       </c>
       <c r="L176">
-        <v>49.3649274017702</v>
+        <v>42.80097577323095</v>
       </c>
       <c r="M176">
-        <v>47.02591006395156</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
+        <v>45.56502050828487</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>30.48351287841797</v>
+        <v>33.68259811401367</v>
       </c>
       <c r="C177">
-        <v>30.89193344116211</v>
+        <v>33.89972686767578</v>
       </c>
       <c r="D177">
-        <v>30.16440773010254</v>
+        <v>33.55422210693359</v>
       </c>
       <c r="E177">
-        <v>30.71392822265625</v>
+        <v>33.82347869873047</v>
       </c>
       <c r="F177">
-        <v>13267360</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>30.65706336096624</v>
+        <v>34.2391205600276</v>
       </c>
       <c r="H177">
-        <v>30.11662454605102</v>
+        <v>34.83068790435791</v>
       </c>
       <c r="I177">
-        <v>30.76186561584473</v>
+        <v>35.00744438171387</v>
       </c>
       <c r="J177">
-        <v>34.96720825345147</v>
+        <v>34.54569640830393</v>
       </c>
       <c r="L177">
-        <v>52.15246561370336</v>
+        <v>44.84902971237869</v>
       </c>
       <c r="M177">
-        <v>48.80233355908364</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
+        <v>46.75163309827949</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>30.71586608886719</v>
+        <v>33.82978057861328</v>
       </c>
       <c r="C178">
-        <v>30.89121055603028</v>
+        <v>34.4680061340332</v>
       </c>
       <c r="D178">
-        <v>30.48720741271973</v>
+        <v>33.8226203918457</v>
       </c>
       <c r="E178">
-        <v>30.6005802154541</v>
+        <v>34.385498046875</v>
       </c>
       <c r="F178">
-        <v>8673024</v>
+        <v>21809376</v>
       </c>
       <c r="G178">
-        <v>30.65192852955605</v>
+        <v>34.25242760428645</v>
       </c>
       <c r="H178">
-        <v>30.17361192703247</v>
+        <v>34.74864540100098</v>
       </c>
       <c r="I178">
-        <v>30.68030122121175</v>
+        <v>34.96038729349772</v>
       </c>
       <c r="J178">
-        <v>34.90937212049786</v>
+        <v>34.54357457570222</v>
       </c>
       <c r="L178">
-        <v>50.60670874550698</v>
+        <v>52.39358029364934</v>
       </c>
       <c r="M178">
-        <v>47.94834416362047</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
+        <v>51.25377444801716</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>30.60191345214844</v>
+        <v>34.3892822265625</v>
       </c>
       <c r="C179">
-        <v>32.28923416137695</v>
+        <v>34.86612319946289</v>
       </c>
       <c r="D179">
-        <v>30.60138320922852</v>
+        <v>34.08152770996094</v>
       </c>
       <c r="E179">
-        <v>32.23896789550781</v>
+        <v>34.86612319946289</v>
       </c>
       <c r="F179">
-        <v>54366656</v>
+        <v>8028672</v>
       </c>
       <c r="G179">
-        <v>30.79620483555166</v>
+        <v>34.30821811293886</v>
       </c>
       <c r="H179">
-        <v>30.28842267990112</v>
+        <v>34.68792266845703</v>
       </c>
       <c r="I179">
-        <v>30.64588731129964</v>
+        <v>34.93151143391927</v>
       </c>
       <c r="J179">
-        <v>34.87400252811389</v>
+        <v>34.54784674290434</v>
       </c>
       <c r="L179">
-        <v>66.67055972704158</v>
+        <v>57.9303545790584</v>
       </c>
       <c r="M179">
-        <v>59.09159493840089</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13">
+        <v>54.77528191115502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>32.24291610717773</v>
+        <v>34.86582565307617</v>
       </c>
       <c r="C180">
-        <v>32.27127838134766</v>
+        <v>36.24236679077149</v>
       </c>
       <c r="D180">
-        <v>31.58354377746582</v>
+        <v>34.72013092041016</v>
       </c>
       <c r="E180">
-        <v>32.20161437988281</v>
+        <v>36.24236679077149</v>
       </c>
       <c r="F180">
-        <v>27269952</v>
+        <v>83310368</v>
       </c>
       <c r="G180">
-        <v>30.92396933958177</v>
+        <v>34.48404981092364</v>
       </c>
       <c r="H180">
-        <v>30.43675107955933</v>
+        <v>34.71058731079101</v>
       </c>
       <c r="I180">
-        <v>30.61995105743408</v>
+        <v>34.93568751017253</v>
       </c>
       <c r="J180">
-        <v>34.8386066586009</v>
+        <v>34.57029071704828</v>
       </c>
       <c r="L180">
-        <v>66.11902171194403</v>
+        <v>69.396236641513</v>
       </c>
       <c r="M180">
-        <v>58.7826182079903</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
+        <v>63.0146026031969</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>32.19594955444336</v>
+        <v>36.23107147216797</v>
       </c>
       <c r="C181">
-        <v>33.01654434204102</v>
+        <v>36.69071960449219</v>
       </c>
       <c r="D181">
-        <v>32.15657806396484</v>
+        <v>35.51691818237305</v>
       </c>
       <c r="E181">
-        <v>32.69830322265625</v>
+        <v>36.58266067504883</v>
       </c>
       <c r="F181">
-        <v>34551712</v>
+        <v>112990784</v>
       </c>
       <c r="G181">
-        <v>31.08527241986126</v>
+        <v>34.67483261675321</v>
       </c>
       <c r="H181">
-        <v>30.68066673278809</v>
+        <v>34.75351619720459</v>
       </c>
       <c r="I181">
-        <v>30.60831775665283</v>
+        <v>34.96795984903972</v>
       </c>
       <c r="J181">
-        <v>34.81025826872084</v>
+        <v>34.59694462377676</v>
       </c>
       <c r="L181">
-        <v>69.85008707131701</v>
+        <v>71.55292591993073</v>
       </c>
       <c r="M181">
-        <v>61.65379574283983</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13">
+        <v>64.72586057211826</v>
+      </c>
+      <c r="O181" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>32.7042236328125</v>
+        <v>36.57098388671875</v>
       </c>
       <c r="C182">
-        <v>32.91535186767578</v>
+        <v>36.84721374511719</v>
       </c>
       <c r="D182">
-        <v>32.1794319152832</v>
+        <v>36.57098388671875</v>
       </c>
       <c r="E182">
-        <v>32.248046875</v>
+        <v>36.65820693969727</v>
       </c>
       <c r="F182">
-        <v>15752832</v>
+        <v>7524736</v>
       </c>
       <c r="G182">
-        <v>31.19097918851024</v>
+        <v>34.85513937338448</v>
       </c>
       <c r="H182">
-        <v>30.83908214569092</v>
+        <v>34.73144435882568</v>
       </c>
       <c r="I182">
-        <v>30.60078779856364</v>
+        <v>35.03556620279948</v>
       </c>
       <c r="J182">
-        <v>34.77632169396957</v>
+        <v>34.62424611140486</v>
       </c>
       <c r="L182">
-        <v>62.79751788106041</v>
+        <v>72.04494781074354</v>
       </c>
       <c r="M182">
-        <v>57.72801200990524</v>
+        <v>65.11178957924267</v>
+      </c>
+      <c r="O182" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
